--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_23_19.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_23_19.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>400130.8397078766</v>
+        <v>397429.1918053422</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.493767344</v>
+        <v>603248.4937673426</v>
       </c>
     </row>
     <row r="9">
@@ -662,22 +662,22 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>39.70122005611962</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>187.5255871663196</v>
       </c>
       <c r="F2" t="n">
-        <v>187.5255871663197</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>187.5255871663197</v>
+        <v>13.09783323005805</v>
       </c>
       <c r="H2" t="n">
-        <v>187.5255871663197</v>
+        <v>187.5255871663196</v>
       </c>
       <c r="I2" t="n">
-        <v>125.4713171199748</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -716,13 +716,13 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>187.5255871663196</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>145.1986582043248</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -741,7 +741,7 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>36.3946960015969</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
@@ -756,7 +756,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>58.90455890409151</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -786,7 +786,7 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>149.7702446909496</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
@@ -795,13 +795,13 @@
         <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>127.2603817884552</v>
+        <v>187.5255871663196</v>
       </c>
       <c r="W3" t="n">
-        <v>187.5255871663197</v>
+        <v>187.5255871663196</v>
       </c>
       <c r="X3" t="n">
-        <v>187.5255871663197</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
         <v>0</v>
@@ -820,7 +820,7 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>52.21594625443417</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -874,7 +874,7 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>52.21594625443403</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -893,7 +893,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>356.0261917321604</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -905,16 +905,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>48.3175197070511</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>411.8707348436268</v>
+        <v>11.87073484362677</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>304.326804756183</v>
       </c>
       <c r="I5" t="n">
-        <v>78.16360657708299</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -941,25 +941,25 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>130.8133087092504</v>
       </c>
       <c r="T5" t="n">
         <v>208.0722578696039</v>
       </c>
       <c r="U5" t="n">
-        <v>251.0710926941158</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -972,28 +972,28 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>137.5342083362206</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>94.50081326185514</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>36.29946757904885</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1023,22 +1023,22 @@
         <v>31.66886087721431</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>137.5750138932992</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>192.7632183107638</v>
       </c>
       <c r="U6" t="n">
         <v>225.8205739680685</v>
       </c>
       <c r="V6" t="n">
-        <v>232.8005871494253</v>
+        <v>148.7016668837206</v>
       </c>
       <c r="W6" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
         <v>205.6826957773044</v>
@@ -1054,7 +1054,7 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -1075,7 +1075,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>18.15430933923925</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1099,7 +1099,7 @@
         <v>22.59469128425553</v>
       </c>
       <c r="R7" t="n">
-        <v>66.96743651574243</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>197.1876907596159</v>
@@ -1108,7 +1108,7 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>252.3685669536095</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -1130,16 +1130,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>36.25313153873685</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>204.6362302492169</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
@@ -1187,10 +1187,10 @@
         <v>207.8978127731749</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.0679046626562</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -1209,22 +1209,22 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C9" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D9" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>135.4859120069138</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
         <v>94.29488917436606</v>
@@ -1257,25 +1257,25 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>30.34503645282948</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>137.1789700647269</v>
       </c>
       <c r="T9" t="n">
         <v>192.6772763323794</v>
       </c>
       <c r="U9" t="n">
-        <v>99.31283436050778</v>
+        <v>225.819171215429</v>
       </c>
       <c r="V9" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W9" t="n">
-        <v>251.6949831609196</v>
+        <v>122.1903384582051</v>
       </c>
       <c r="X9" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y9" t="n">
         <v>205.6826957773044</v>
@@ -1333,7 +1333,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>21.09786070099028</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -1345,16 +1345,16 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2340827876525</v>
+        <v>234.6760972201902</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>179.4817970553749</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -1367,28 +1367,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>187.9114417088595</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
         <v>410.4696069132659</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>289.9775033393747</v>
       </c>
       <c r="I11" t="n">
-        <v>24.14662204184569</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,10 +1418,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>98.88510599615218</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>201.9388203544492</v>
+        <v>201.9388203544491</v>
       </c>
       <c r="U11" t="n">
         <v>250.959002459687</v>
@@ -1436,7 +1436,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560536</v>
+        <v>76.66276752108961</v>
       </c>
     </row>
     <row r="12">
@@ -1461,13 +1461,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G12" t="n">
-        <v>134.7575643133521</v>
+        <v>134.757564313352</v>
       </c>
       <c r="H12" t="n">
-        <v>87.26058381812553</v>
+        <v>87.2605838181255</v>
       </c>
       <c r="I12" t="n">
-        <v>10.48847705530795</v>
+        <v>10.48847705530787</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1525,22 +1525,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>136.725435227819</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>62.08617010275898</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.8230033569236</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1573,16 +1573,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>79.81330679905236</v>
       </c>
       <c r="S13" t="n">
         <v>186.2346889920369</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>218.682419239904</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2007761200435</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1616,7 +1616,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417118</v>
       </c>
       <c r="G14" t="n">
         <v>409.8033385187866</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1771,19 +1771,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>11.81332727249013</v>
+        <v>99.9742741983392</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1825,13 +1825,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>286.5229983365897</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1847,7 +1847,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206829</v>
       </c>
       <c r="E17" t="n">
         <v>381.9303700722618</v>
@@ -2005,7 +2005,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>83.06560892428134</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -2020,7 +2020,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2050,7 +2050,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
-        <v>34.21058558914974</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
         <v>217.4054503272883</v>
@@ -2245,13 +2245,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>99.97427419833869</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2284,16 +2284,16 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
-        <v>176.1811323375795</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2476,19 +2476,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>99.97427419833667</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2521,10 +2521,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
-        <v>181.0262860016446</v>
+        <v>181.0262860016461</v>
       </c>
       <c r="T25" t="n">
         <v>217.4054503272883</v>
@@ -2536,7 +2536,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>162.7401913819091</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
@@ -2552,7 +2552,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
         <v>365.2728917710076</v>
@@ -2570,7 +2570,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H26" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2719,19 +2719,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>99.97427419833829</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2767,13 +2767,13 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>139.1630968205463</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -2846,7 +2846,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U29" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V29" t="n">
         <v>327.7522584701349</v>
@@ -2950,7 +2950,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>120.7871326503966</v>
+        <v>120.7871326503968</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
@@ -3190,16 +3190,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>102.1557845699811</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>103.168699193619</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695436</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3427,22 +3427,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>102.1557845699808</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3490,7 +3490,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>71.76895293959868</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -3500,7 +3500,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634797</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
         <v>365.2728917710076</v>
@@ -3664,16 +3664,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>83.06560892428134</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>99.97427419833748</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3749,10 +3749,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417109</v>
       </c>
       <c r="G41" t="n">
-        <v>409.8033385187861</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H41" t="n">
         <v>283.1540821444137</v>
@@ -3898,25 +3898,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>120.7871326503968</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>42.53134576113663</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3946,7 +3946,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
         <v>217.4054503272883</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4141,13 +4141,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>99.97427419833772</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>99.97427419833835</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -4304,28 +4304,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>750.1023486652789</v>
+        <v>414.0172523312942</v>
       </c>
       <c r="C2" t="n">
-        <v>750.1023486652789</v>
+        <v>414.0172523312942</v>
       </c>
       <c r="D2" t="n">
-        <v>710.00010618435</v>
+        <v>414.0172523312942</v>
       </c>
       <c r="E2" t="n">
-        <v>710.00010618435</v>
+        <v>224.5974673148097</v>
       </c>
       <c r="F2" t="n">
-        <v>520.5803211678653</v>
+        <v>217.6519665656063</v>
       </c>
       <c r="G2" t="n">
-        <v>331.1605361513808</v>
+        <v>204.4218319897901</v>
       </c>
       <c r="H2" t="n">
-        <v>141.7407511348962</v>
+        <v>15.00204697330557</v>
       </c>
       <c r="I2" t="n">
-        <v>15.00204697330558</v>
+        <v>15.00204697330557</v>
       </c>
       <c r="J2" t="n">
         <v>21.03371160678489</v>
@@ -4334,46 +4334,46 @@
         <v>80.81213159058962</v>
       </c>
       <c r="L2" t="n">
-        <v>191.8743094079188</v>
+        <v>191.8743094079185</v>
       </c>
       <c r="M2" t="n">
-        <v>347.1218190644756</v>
+        <v>347.1218190644754</v>
       </c>
       <c r="N2" t="n">
-        <v>509.4952041123829</v>
+        <v>509.4952041123825</v>
       </c>
       <c r="O2" t="n">
-        <v>649.484525998558</v>
+        <v>649.4845259985575</v>
       </c>
       <c r="P2" t="n">
-        <v>734.4611726020258</v>
+        <v>734.4611726020256</v>
       </c>
       <c r="Q2" t="n">
-        <v>750.1023486652789</v>
+        <v>750.1023486652786</v>
       </c>
       <c r="R2" t="n">
-        <v>750.1023486652789</v>
+        <v>750.1023486652786</v>
       </c>
       <c r="S2" t="n">
-        <v>750.1023486652789</v>
+        <v>750.1023486652786</v>
       </c>
       <c r="T2" t="n">
-        <v>750.1023486652789</v>
+        <v>750.1023486652786</v>
       </c>
       <c r="U2" t="n">
-        <v>750.1023486652789</v>
+        <v>750.1023486652786</v>
       </c>
       <c r="V2" t="n">
-        <v>750.1023486652789</v>
+        <v>560.682563648794</v>
       </c>
       <c r="W2" t="n">
-        <v>750.1023486652789</v>
+        <v>560.682563648794</v>
       </c>
       <c r="X2" t="n">
-        <v>750.1023486652789</v>
+        <v>414.0172523312942</v>
       </c>
       <c r="Y2" t="n">
-        <v>750.1023486652789</v>
+        <v>414.0172523312942</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>74.50160142188287</v>
+        <v>51.76436616683779</v>
       </c>
       <c r="C3" t="n">
-        <v>74.50160142188287</v>
+        <v>51.76436616683779</v>
       </c>
       <c r="D3" t="n">
-        <v>74.50160142188287</v>
+        <v>15.00204697330557</v>
       </c>
       <c r="E3" t="n">
-        <v>74.50160142188287</v>
+        <v>15.00204697330557</v>
       </c>
       <c r="F3" t="n">
-        <v>74.50160142188287</v>
+        <v>15.00204697330557</v>
       </c>
       <c r="G3" t="n">
-        <v>74.50160142188287</v>
+        <v>15.00204697330557</v>
       </c>
       <c r="H3" t="n">
-        <v>74.50160142188287</v>
+        <v>15.00204697330557</v>
       </c>
       <c r="I3" t="n">
-        <v>15.00204697330558</v>
+        <v>15.00204697330557</v>
       </c>
       <c r="J3" t="n">
-        <v>15.00204697330558</v>
+        <v>15.00204697330557</v>
       </c>
       <c r="K3" t="n">
-        <v>67.13418877024199</v>
+        <v>67.13418877024202</v>
       </c>
       <c r="L3" t="n">
-        <v>183.5548280772647</v>
+        <v>183.5548280772646</v>
       </c>
       <c r="M3" t="n">
-        <v>338.7690911140239</v>
+        <v>338.7690911140238</v>
       </c>
       <c r="N3" t="n">
-        <v>512.5000587546596</v>
+        <v>512.5000587546593</v>
       </c>
       <c r="O3" t="n">
-        <v>649.2101578476343</v>
+        <v>649.210157847634</v>
       </c>
       <c r="P3" t="n">
-        <v>739.5989987017055</v>
+        <v>739.5989987017052</v>
       </c>
       <c r="Q3" t="n">
-        <v>750.1023486652789</v>
+        <v>750.1023486652786</v>
       </c>
       <c r="R3" t="n">
-        <v>750.1023486652789</v>
+        <v>750.1023486652786</v>
       </c>
       <c r="S3" t="n">
-        <v>750.1023486652789</v>
+        <v>598.8192732198748</v>
       </c>
       <c r="T3" t="n">
-        <v>750.1023486652789</v>
+        <v>598.8192732198748</v>
       </c>
       <c r="U3" t="n">
-        <v>750.1023486652789</v>
+        <v>598.8192732198748</v>
       </c>
       <c r="V3" t="n">
-        <v>621.5565084749201</v>
+        <v>409.3994882033903</v>
       </c>
       <c r="W3" t="n">
-        <v>432.1367234584355</v>
+        <v>219.9797031869058</v>
       </c>
       <c r="X3" t="n">
-        <v>242.7169384419509</v>
+        <v>219.9797031869058</v>
       </c>
       <c r="Y3" t="n">
-        <v>242.7169384419509</v>
+        <v>219.9797031869058</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>67.7454270282896</v>
+        <v>15.00204697330557</v>
       </c>
       <c r="C4" t="n">
-        <v>67.7454270282896</v>
+        <v>15.00204697330557</v>
       </c>
       <c r="D4" t="n">
-        <v>15.00204697330558</v>
+        <v>15.00204697330557</v>
       </c>
       <c r="E4" t="n">
-        <v>15.00204697330558</v>
+        <v>15.00204697330557</v>
       </c>
       <c r="F4" t="n">
-        <v>15.00204697330558</v>
+        <v>15.00204697330557</v>
       </c>
       <c r="G4" t="n">
-        <v>15.00204697330558</v>
+        <v>15.00204697330557</v>
       </c>
       <c r="H4" t="n">
-        <v>15.00204697330558</v>
+        <v>15.00204697330557</v>
       </c>
       <c r="I4" t="n">
-        <v>15.00204697330558</v>
+        <v>15.00204697330557</v>
       </c>
       <c r="J4" t="n">
-        <v>15.00204697330558</v>
+        <v>15.00204697330557</v>
       </c>
       <c r="K4" t="n">
-        <v>15.00204697330558</v>
+        <v>15.00204697330557</v>
       </c>
       <c r="L4" t="n">
-        <v>27.03967056230169</v>
+        <v>27.03967056230162</v>
       </c>
       <c r="M4" t="n">
-        <v>42.98993985170704</v>
+        <v>42.98993985170694</v>
       </c>
       <c r="N4" t="n">
-        <v>66.41847329396313</v>
+        <v>66.418473293963</v>
       </c>
       <c r="O4" t="n">
-        <v>67.7454270282896</v>
+        <v>67.74542702828944</v>
       </c>
       <c r="P4" t="n">
-        <v>67.7454270282896</v>
+        <v>67.74542702828944</v>
       </c>
       <c r="Q4" t="n">
-        <v>67.7454270282896</v>
+        <v>67.74542702828944</v>
       </c>
       <c r="R4" t="n">
-        <v>67.7454270282896</v>
+        <v>67.74542702828944</v>
       </c>
       <c r="S4" t="n">
-        <v>67.7454270282896</v>
+        <v>67.74542702828944</v>
       </c>
       <c r="T4" t="n">
-        <v>67.7454270282896</v>
+        <v>67.74542702828944</v>
       </c>
       <c r="U4" t="n">
-        <v>67.7454270282896</v>
+        <v>67.74542702828944</v>
       </c>
       <c r="V4" t="n">
-        <v>67.7454270282896</v>
+        <v>15.00204697330557</v>
       </c>
       <c r="W4" t="n">
-        <v>67.7454270282896</v>
+        <v>15.00204697330557</v>
       </c>
       <c r="X4" t="n">
-        <v>67.7454270282896</v>
+        <v>15.00204697330557</v>
       </c>
       <c r="Y4" t="n">
-        <v>67.7454270282896</v>
+        <v>15.00204697330557</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1331.212906457998</v>
+        <v>1113.760102633513</v>
       </c>
       <c r="C5" t="n">
-        <v>1331.212906457998</v>
+        <v>1113.760102633513</v>
       </c>
       <c r="D5" t="n">
-        <v>972.9472078512474</v>
+        <v>755.4944040267628</v>
       </c>
       <c r="E5" t="n">
-        <v>587.1589552530031</v>
+        <v>369.7061514285186</v>
       </c>
       <c r="F5" t="n">
-        <v>538.3533797913353</v>
+        <v>362.7606506793151</v>
       </c>
       <c r="G5" t="n">
-        <v>122.3223344947425</v>
+        <v>350.7700094231265</v>
       </c>
       <c r="H5" t="n">
-        <v>122.3223344947425</v>
+        <v>43.36919653809305</v>
       </c>
       <c r="I5" t="n">
-        <v>43.36919653809306</v>
+        <v>43.36919653809305</v>
       </c>
       <c r="J5" t="n">
         <v>152.5078184301901</v>
       </c>
       <c r="K5" t="n">
-        <v>366.8168396232722</v>
+        <v>366.8168396232717</v>
       </c>
       <c r="L5" t="n">
-        <v>669.5878927711872</v>
+        <v>669.5878927711865</v>
       </c>
       <c r="M5" t="n">
-        <v>1038.14846457873</v>
+        <v>1038.148464578729</v>
       </c>
       <c r="N5" t="n">
-        <v>1417.286540135167</v>
+        <v>1417.286540135166</v>
       </c>
       <c r="O5" t="n">
-        <v>1761.960612545596</v>
+        <v>1761.960612545595</v>
       </c>
       <c r="P5" t="n">
-        <v>2021.630958172447</v>
+        <v>2021.630958172446</v>
       </c>
       <c r="Q5" t="n">
-        <v>2168.459826904653</v>
+        <v>2168.459826904652</v>
       </c>
       <c r="R5" t="n">
-        <v>2168.459826904653</v>
+        <v>2168.459826904652</v>
       </c>
       <c r="S5" t="n">
-        <v>2168.459826904653</v>
+        <v>2036.325171642783</v>
       </c>
       <c r="T5" t="n">
-        <v>1958.285829056568</v>
+        <v>1826.151173794698</v>
       </c>
       <c r="U5" t="n">
-        <v>1704.678664719078</v>
+        <v>1826.151173794698</v>
       </c>
       <c r="V5" t="n">
-        <v>1704.678664719078</v>
+        <v>1826.151173794698</v>
       </c>
       <c r="W5" t="n">
-        <v>1704.678664719078</v>
+        <v>1473.382518524584</v>
       </c>
       <c r="X5" t="n">
-        <v>1331.212906457998</v>
+        <v>1473.382518524584</v>
       </c>
       <c r="Y5" t="n">
-        <v>1331.212906457998</v>
+        <v>1473.382518524584</v>
       </c>
     </row>
     <row r="6">
@@ -4620,28 +4620,28 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>462.2120024116382</v>
+        <v>560.2603676655167</v>
       </c>
       <c r="C6" t="n">
-        <v>287.7589731305112</v>
+        <v>385.8073383843897</v>
       </c>
       <c r="D6" t="n">
-        <v>138.8245634692599</v>
+        <v>385.8073383843897</v>
       </c>
       <c r="E6" t="n">
-        <v>138.8245634692599</v>
+        <v>226.5698833789342</v>
       </c>
       <c r="F6" t="n">
-        <v>138.8245634692599</v>
+        <v>80.03532540581917</v>
       </c>
       <c r="G6" t="n">
-        <v>138.8245634692599</v>
+        <v>80.03532540581917</v>
       </c>
       <c r="H6" t="n">
-        <v>43.36919653809306</v>
+        <v>80.03532540581917</v>
       </c>
       <c r="I6" t="n">
-        <v>43.36919653809306</v>
+        <v>43.36919653809305</v>
       </c>
       <c r="J6" t="n">
         <v>89.55356510562316</v>
@@ -4671,25 +4671,25 @@
         <v>1734.238298972664</v>
       </c>
       <c r="S6" t="n">
-        <v>1734.238298972664</v>
+        <v>1595.273638474382</v>
       </c>
       <c r="T6" t="n">
-        <v>1734.238298972664</v>
+        <v>1400.563316948358</v>
       </c>
       <c r="U6" t="n">
-        <v>1506.136709105928</v>
+        <v>1172.461727081622</v>
       </c>
       <c r="V6" t="n">
-        <v>1270.984600874186</v>
+        <v>1022.258023158672</v>
       </c>
       <c r="W6" t="n">
-        <v>1016.747244145984</v>
+        <v>768.0206664304706</v>
       </c>
       <c r="X6" t="n">
-        <v>808.8957439404512</v>
+        <v>768.0206664304706</v>
       </c>
       <c r="Y6" t="n">
-        <v>601.1354451754974</v>
+        <v>560.2603676655167</v>
       </c>
     </row>
     <row r="7">
@@ -4699,34 +4699,34 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>230.6430656672517</v>
+        <v>43.36919653809305</v>
       </c>
       <c r="C7" t="n">
-        <v>61.70688273934483</v>
+        <v>43.36919653809305</v>
       </c>
       <c r="D7" t="n">
-        <v>61.70688273934483</v>
+        <v>43.36919653809305</v>
       </c>
       <c r="E7" t="n">
-        <v>61.70688273934483</v>
+        <v>43.36919653809305</v>
       </c>
       <c r="F7" t="n">
-        <v>61.70688273934483</v>
+        <v>43.36919653809305</v>
       </c>
       <c r="G7" t="n">
-        <v>61.70688273934483</v>
+        <v>43.36919653809305</v>
       </c>
       <c r="H7" t="n">
-        <v>61.70688273934483</v>
+        <v>43.36919653809305</v>
       </c>
       <c r="I7" t="n">
-        <v>61.70688273934483</v>
+        <v>43.36919653809305</v>
       </c>
       <c r="J7" t="n">
-        <v>43.36919653809306</v>
+        <v>43.36919653809305</v>
       </c>
       <c r="K7" t="n">
-        <v>92.71685897981523</v>
+        <v>92.71685897981521</v>
       </c>
       <c r="L7" t="n">
         <v>185.7706748018941</v>
@@ -4747,28 +4747,28 @@
         <v>497.4664265514521</v>
       </c>
       <c r="R7" t="n">
-        <v>429.8225512830253</v>
+        <v>497.4664265514521</v>
       </c>
       <c r="S7" t="n">
-        <v>230.6430656672517</v>
+        <v>298.2869409356784</v>
       </c>
       <c r="T7" t="n">
-        <v>230.6430656672517</v>
+        <v>298.2869409356784</v>
       </c>
       <c r="U7" t="n">
-        <v>230.6430656672517</v>
+        <v>43.36919653809305</v>
       </c>
       <c r="V7" t="n">
-        <v>230.6430656672517</v>
+        <v>43.36919653809305</v>
       </c>
       <c r="W7" t="n">
-        <v>230.6430656672517</v>
+        <v>43.36919653809305</v>
       </c>
       <c r="X7" t="n">
-        <v>230.6430656672517</v>
+        <v>43.36919653809305</v>
       </c>
       <c r="Y7" t="n">
-        <v>230.6430656672517</v>
+        <v>43.36919653809305</v>
       </c>
     </row>
     <row r="8">
@@ -4778,28 +4778,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1580.293765528144</v>
+        <v>1032.246258867485</v>
       </c>
       <c r="C8" t="n">
-        <v>1211.331248587732</v>
+        <v>1032.246258867485</v>
       </c>
       <c r="D8" t="n">
-        <v>853.0655499809816</v>
+        <v>673.9805602607344</v>
       </c>
       <c r="E8" t="n">
-        <v>467.2772973827374</v>
+        <v>467.2772973827375</v>
       </c>
       <c r="F8" t="n">
-        <v>56.29139259312986</v>
+        <v>56.2913925931299</v>
       </c>
       <c r="G8" t="n">
-        <v>44.34100425941066</v>
+        <v>44.3410042594107</v>
       </c>
       <c r="H8" t="n">
-        <v>44.34100425941066</v>
+        <v>44.3410042594107</v>
       </c>
       <c r="I8" t="n">
-        <v>44.34100425941066</v>
+        <v>44.3410042594107</v>
       </c>
       <c r="J8" t="n">
         <v>156.82805594203</v>
@@ -4808,46 +4808,46 @@
         <v>376.1555054002246</v>
       </c>
       <c r="L8" t="n">
-        <v>685.1523625707944</v>
+        <v>685.1523625707946</v>
       </c>
       <c r="M8" t="n">
-        <v>1060.64034093755</v>
+        <v>1060.640340937551</v>
       </c>
       <c r="N8" t="n">
         <v>1446.817915733709</v>
       </c>
       <c r="O8" t="n">
-        <v>1798.13918765951</v>
+        <v>1798.139187659512</v>
       </c>
       <c r="P8" t="n">
-        <v>2063.482764284335</v>
+        <v>2063.482764284337</v>
       </c>
       <c r="Q8" t="n">
-        <v>2214.571993228518</v>
+        <v>2214.57199322852</v>
       </c>
       <c r="R8" t="n">
-        <v>2217.050212970533</v>
+        <v>2217.050212970535</v>
       </c>
       <c r="S8" t="n">
-        <v>2217.050212970533</v>
+        <v>2217.050212970535</v>
       </c>
       <c r="T8" t="n">
-        <v>2007.052422290558</v>
+        <v>2007.052422290561</v>
       </c>
       <c r="U8" t="n">
-        <v>2007.052422290558</v>
+        <v>1753.448478186867</v>
       </c>
       <c r="V8" t="n">
-        <v>2007.052422290558</v>
+        <v>1422.385590843297</v>
       </c>
       <c r="W8" t="n">
-        <v>2007.052422290558</v>
+        <v>1422.385590843297</v>
       </c>
       <c r="X8" t="n">
-        <v>2007.052422290558</v>
+        <v>1422.385590843297</v>
       </c>
       <c r="Y8" t="n">
-        <v>1616.913090314747</v>
+        <v>1032.246258867485</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4857,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>599.8302625768191</v>
+        <v>473.2788513483832</v>
       </c>
       <c r="C9" t="n">
-        <v>425.3772332956921</v>
+        <v>298.8258220672562</v>
       </c>
       <c r="D9" t="n">
-        <v>276.4428236344408</v>
+        <v>298.8258220672562</v>
       </c>
       <c r="E9" t="n">
-        <v>276.4428236344408</v>
+        <v>139.5883670618007</v>
       </c>
       <c r="F9" t="n">
-        <v>276.4428236344408</v>
+        <v>139.5883670618007</v>
       </c>
       <c r="G9" t="n">
-        <v>139.5883670618006</v>
+        <v>139.5883670618007</v>
       </c>
       <c r="H9" t="n">
-        <v>44.34100425941066</v>
+        <v>44.3410042594107</v>
       </c>
       <c r="I9" t="n">
-        <v>44.34100425941066</v>
+        <v>44.3410042594107</v>
       </c>
       <c r="J9" t="n">
-        <v>92.51967467113519</v>
+        <v>92.51967467113528</v>
       </c>
       <c r="K9" t="n">
-        <v>253.0195209154164</v>
+        <v>253.0195209154166</v>
       </c>
       <c r="L9" t="n">
-        <v>515.1539122572545</v>
+        <v>515.1539122572549</v>
       </c>
       <c r="M9" t="n">
-        <v>840.4092510449742</v>
+        <v>840.4092510449748</v>
       </c>
       <c r="N9" t="n">
-        <v>1188.681775738686</v>
+        <v>1188.681775738687</v>
       </c>
       <c r="O9" t="n">
-        <v>1485.063300074214</v>
+        <v>1485.063300074215</v>
       </c>
       <c r="P9" t="n">
-        <v>1703.602536566944</v>
+        <v>1703.602536566945</v>
       </c>
       <c r="Q9" t="n">
-        <v>1799.771032257641</v>
+        <v>1799.771032257643</v>
       </c>
       <c r="R9" t="n">
-        <v>1799.771032257641</v>
+        <v>1769.119480285088</v>
       </c>
       <c r="S9" t="n">
-        <v>1799.771032257641</v>
+        <v>1630.554864058091</v>
       </c>
       <c r="T9" t="n">
-        <v>1605.147520810793</v>
+        <v>1435.931352611243</v>
       </c>
       <c r="U9" t="n">
-        <v>1504.83152650725</v>
+        <v>1207.831179666365</v>
       </c>
       <c r="V9" t="n">
-        <v>1269.679418275507</v>
+        <v>972.6790714346223</v>
       </c>
       <c r="W9" t="n">
-        <v>1015.442061547306</v>
+        <v>849.2544871334051</v>
       </c>
       <c r="X9" t="n">
-        <v>807.5905613417731</v>
+        <v>849.2544871334051</v>
       </c>
       <c r="Y9" t="n">
-        <v>599.8302625768191</v>
+        <v>641.4941883684512</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>44.34100425941066</v>
+        <v>44.3410042594107</v>
       </c>
       <c r="C10" t="n">
-        <v>44.34100425941066</v>
+        <v>44.3410042594107</v>
       </c>
       <c r="D10" t="n">
-        <v>44.34100425941066</v>
+        <v>44.3410042594107</v>
       </c>
       <c r="E10" t="n">
-        <v>44.34100425941066</v>
+        <v>44.3410042594107</v>
       </c>
       <c r="F10" t="n">
-        <v>44.34100425941066</v>
+        <v>44.3410042594107</v>
       </c>
       <c r="G10" t="n">
-        <v>44.34100425941066</v>
+        <v>44.3410042594107</v>
       </c>
       <c r="H10" t="n">
-        <v>44.34100425941066</v>
+        <v>44.3410042594107</v>
       </c>
       <c r="I10" t="n">
-        <v>44.34100425941066</v>
+        <v>44.3410042594107</v>
       </c>
       <c r="J10" t="n">
-        <v>44.34100425941066</v>
+        <v>44.3410042594107</v>
       </c>
       <c r="K10" t="n">
-        <v>95.74470838016751</v>
+        <v>95.74470838016765</v>
       </c>
       <c r="L10" t="n">
-        <v>191.4295496810362</v>
+        <v>191.4295496810365</v>
       </c>
       <c r="M10" t="n">
-        <v>295.5740818422662</v>
+        <v>295.5740818422665</v>
       </c>
       <c r="N10" t="n">
-        <v>405.099815709125</v>
+        <v>405.0998157091254</v>
       </c>
       <c r="O10" t="n">
-        <v>485.9514692712731</v>
+        <v>485.9514692712736</v>
       </c>
       <c r="P10" t="n">
-        <v>536.072055313974</v>
+        <v>536.0720553139746</v>
       </c>
       <c r="Q10" t="n">
-        <v>514.7610849089333</v>
+        <v>536.0720553139746</v>
       </c>
       <c r="R10" t="n">
-        <v>514.7610849089333</v>
+        <v>536.0720553139746</v>
       </c>
       <c r="S10" t="n">
-        <v>514.7610849089333</v>
+        <v>536.0720553139746</v>
       </c>
       <c r="T10" t="n">
-        <v>514.7610849089333</v>
+        <v>536.0720553139746</v>
       </c>
       <c r="U10" t="n">
-        <v>225.6357487597894</v>
+        <v>299.0254924652976</v>
       </c>
       <c r="V10" t="n">
-        <v>225.6357487597894</v>
+        <v>44.3410042594107</v>
       </c>
       <c r="W10" t="n">
-        <v>225.6357487597894</v>
+        <v>44.3410042594107</v>
       </c>
       <c r="X10" t="n">
-        <v>44.34100425941066</v>
+        <v>44.3410042594107</v>
       </c>
       <c r="Y10" t="n">
-        <v>44.34100425941066</v>
+        <v>44.3410042594107</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1872.09016919769</v>
+        <v>1898.076467649853</v>
       </c>
       <c r="C11" t="n">
-        <v>1503.127652257278</v>
+        <v>1529.113950709441</v>
       </c>
       <c r="D11" t="n">
-        <v>1313.318115177623</v>
+        <v>1170.848252102691</v>
       </c>
       <c r="E11" t="n">
-        <v>927.5298625793785</v>
+        <v>785.0599995044466</v>
       </c>
       <c r="F11" t="n">
-        <v>516.5439577897708</v>
+        <v>785.0599995044466</v>
       </c>
       <c r="G11" t="n">
-        <v>101.9281932309163</v>
+        <v>370.4442349455923</v>
       </c>
       <c r="H11" t="n">
-        <v>101.9281932309163</v>
+        <v>77.53766591592077</v>
       </c>
       <c r="I11" t="n">
-        <v>77.53766591592066</v>
+        <v>77.53766591592077</v>
       </c>
       <c r="J11" t="n">
-        <v>304.4060796706888</v>
+        <v>304.4060796706895</v>
       </c>
       <c r="K11" t="n">
-        <v>695.1615405656951</v>
+        <v>695.1615405656964</v>
       </c>
       <c r="L11" t="n">
-        <v>1216.830004625328</v>
+        <v>1216.83000462533</v>
       </c>
       <c r="M11" t="n">
-        <v>1828.956123087829</v>
+        <v>1828.956123087832</v>
       </c>
       <c r="N11" t="n">
-        <v>2455.60089048404</v>
+        <v>2455.600890484044</v>
       </c>
       <c r="O11" t="n">
-        <v>3033.988513535293</v>
+        <v>3033.988513535298</v>
       </c>
       <c r="P11" t="n">
-        <v>3493.127967479992</v>
+        <v>3493.127967479997</v>
       </c>
       <c r="Q11" t="n">
-        <v>3789.749829464057</v>
+        <v>3789.749829464063</v>
       </c>
       <c r="R11" t="n">
-        <v>3876.883295796033</v>
+        <v>3876.883295796039</v>
       </c>
       <c r="S11" t="n">
-        <v>3776.999350345374</v>
+        <v>3876.883295796039</v>
       </c>
       <c r="T11" t="n">
-        <v>3573.020743926738</v>
+        <v>3672.904689377403</v>
       </c>
       <c r="U11" t="n">
-        <v>3319.526802048267</v>
+        <v>3419.410747498931</v>
       </c>
       <c r="V11" t="n">
-        <v>2988.463914704696</v>
+        <v>3088.347860155361</v>
       </c>
       <c r="W11" t="n">
-        <v>2635.695259434582</v>
+        <v>2735.579204885246</v>
       </c>
       <c r="X11" t="n">
-        <v>2262.229501173502</v>
+        <v>2362.113446624166</v>
       </c>
       <c r="Y11" t="n">
-        <v>1872.09016919769</v>
+        <v>2284.676307713975</v>
       </c>
     </row>
     <row r="12">
@@ -5106,40 +5106,40 @@
         <v>458.9274008453847</v>
       </c>
       <c r="F12" t="n">
-        <v>312.3928428722697</v>
+        <v>312.3928428722696</v>
       </c>
       <c r="G12" t="n">
         <v>176.2740910406009</v>
       </c>
       <c r="H12" t="n">
-        <v>88.13208718390848</v>
+        <v>88.13208718390851</v>
       </c>
       <c r="I12" t="n">
-        <v>77.53766591592066</v>
+        <v>77.53766591592077</v>
       </c>
       <c r="J12" t="n">
-        <v>193.841091987041</v>
+        <v>193.8410919870414</v>
       </c>
       <c r="K12" t="n">
-        <v>470.7769964046651</v>
+        <v>470.7769964046659</v>
       </c>
       <c r="L12" t="n">
-        <v>691.4401992235415</v>
+        <v>676.7125526339508</v>
       </c>
       <c r="M12" t="n">
-        <v>1199.396765180069</v>
+        <v>1184.669118590479</v>
       </c>
       <c r="N12" t="n">
-        <v>1735.206074881279</v>
+        <v>1720.47842829169</v>
       </c>
       <c r="O12" t="n">
-        <v>2203.147119213801</v>
+        <v>2188.419472624213</v>
       </c>
       <c r="P12" t="n">
-        <v>2559.377995458575</v>
+        <v>2544.650348868987</v>
       </c>
       <c r="Q12" t="n">
-        <v>2559.377995458575</v>
+        <v>2544.650348868987</v>
       </c>
       <c r="R12" t="n">
         <v>2559.377995458575</v>
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>774.7148681614678</v>
+        <v>227.6543053282565</v>
       </c>
       <c r="C13" t="n">
-        <v>605.778685233561</v>
+        <v>227.6543053282565</v>
       </c>
       <c r="D13" t="n">
-        <v>455.6620458212253</v>
+        <v>77.53766591592077</v>
       </c>
       <c r="E13" t="n">
-        <v>307.7489522388323</v>
+        <v>77.53766591592077</v>
       </c>
       <c r="F13" t="n">
-        <v>245.0356491047324</v>
+        <v>77.53766591592077</v>
       </c>
       <c r="G13" t="n">
-        <v>77.53766591592066</v>
+        <v>77.53766591592077</v>
       </c>
       <c r="H13" t="n">
-        <v>77.53766591592066</v>
+        <v>77.53766591592077</v>
       </c>
       <c r="I13" t="n">
-        <v>77.53766591592066</v>
+        <v>77.53766591592077</v>
       </c>
       <c r="J13" t="n">
-        <v>136.8552218758647</v>
+        <v>136.8552218758649</v>
       </c>
       <c r="K13" t="n">
-        <v>364.1690246648142</v>
+        <v>364.1690246648146</v>
       </c>
       <c r="L13" t="n">
-        <v>710.5788654344806</v>
+        <v>710.5788654344813</v>
       </c>
       <c r="M13" t="n">
-        <v>1086.208595376939</v>
+        <v>1086.20859537694</v>
       </c>
       <c r="N13" t="n">
-        <v>1458.341306336947</v>
+        <v>1458.341306336948</v>
       </c>
       <c r="O13" t="n">
-        <v>1786.049800818663</v>
+        <v>1786.049800818665</v>
       </c>
       <c r="P13" t="n">
-        <v>2042.940349010721</v>
+        <v>2042.940349010723</v>
       </c>
       <c r="Q13" t="n">
-        <v>2137.362968742807</v>
+        <v>2137.362968742809</v>
       </c>
       <c r="R13" t="n">
-        <v>2137.362968742807</v>
+        <v>2056.743466925584</v>
       </c>
       <c r="S13" t="n">
-        <v>1949.247121276103</v>
+        <v>1868.62761945888</v>
       </c>
       <c r="T13" t="n">
-        <v>1949.247121276103</v>
+        <v>1647.73628689332</v>
       </c>
       <c r="U13" t="n">
-        <v>1949.247121276103</v>
+        <v>1358.644593842772</v>
       </c>
       <c r="V13" t="n">
-        <v>1694.562633070216</v>
+        <v>1103.960105636885</v>
       </c>
       <c r="W13" t="n">
-        <v>1405.145463033255</v>
+        <v>814.542935599924</v>
       </c>
       <c r="X13" t="n">
-        <v>1177.155912135238</v>
+        <v>586.5533847019067</v>
       </c>
       <c r="Y13" t="n">
-        <v>956.3633329917076</v>
+        <v>365.7608055583765</v>
       </c>
     </row>
     <row r="14">
@@ -5276,28 +5276,28 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R14" t="n">
         <v>4690.833152398593</v>
@@ -5352,31 +5352,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K15" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L15" t="n">
-        <v>923.0670414349513</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M15" t="n">
-        <v>1520.445529061503</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N15" t="n">
-        <v>2148.04349261611</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O15" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P15" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q15" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5410,25 +5410,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>801.6918836311996</v>
+        <v>513.8536007400724</v>
       </c>
       <c r="C16" t="n">
-        <v>632.7557007032927</v>
+        <v>344.9174178121655</v>
       </c>
       <c r="D16" t="n">
-        <v>482.639061290957</v>
+        <v>194.8007783998297</v>
       </c>
       <c r="E16" t="n">
-        <v>334.725967708564</v>
+        <v>194.8007783998297</v>
       </c>
       <c r="F16" t="n">
-        <v>187.8360202106537</v>
+        <v>194.8007783998297</v>
       </c>
       <c r="G16" t="n">
-        <v>187.8360202106537</v>
+        <v>194.8007783998297</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I16" t="n">
         <v>93.81666304797187</v>
@@ -5437,16 +5437,16 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038344</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O16" t="n">
         <v>2035.089393279803</v>
@@ -5455,31 +5455,31 @@
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T16" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U16" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V16" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W16" t="n">
-        <v>1211.329899359457</v>
+        <v>1144.28419561186</v>
       </c>
       <c r="X16" t="n">
-        <v>983.3403484614394</v>
+        <v>916.2946447138422</v>
       </c>
       <c r="Y16" t="n">
-        <v>983.3403484614394</v>
+        <v>695.5020655703121</v>
       </c>
     </row>
     <row r="17">
@@ -5604,16 +5604,16 @@
         <v>1670.092171589158</v>
       </c>
       <c r="N18" t="n">
-        <v>2001.151557821488</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O18" t="n">
-        <v>2553.061288060775</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="P18" t="n">
-        <v>2553.061288060775</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="Q18" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,25 +5647,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>662.1522880254209</v>
+        <v>513.8536007400708</v>
       </c>
       <c r="C19" t="n">
-        <v>493.2161050975141</v>
+        <v>344.9174178121639</v>
       </c>
       <c r="D19" t="n">
-        <v>343.0994656851783</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="E19" t="n">
-        <v>343.0994656851783</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F19" t="n">
-        <v>343.0994656851783</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G19" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I19" t="n">
         <v>93.81666304797187</v>
@@ -5677,7 +5677,7 @@
         <v>435.7419440038343</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
@@ -5695,28 +5695,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832662</v>
       </c>
       <c r="S19" t="n">
-        <v>2345.361232772916</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>2125.759767795857</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>1836.684541140055</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V19" t="n">
-        <v>1582.000052934169</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W19" t="n">
-        <v>1292.582882897208</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X19" t="n">
-        <v>1064.593331999191</v>
+        <v>916.2946447138406</v>
       </c>
       <c r="Y19" t="n">
-        <v>843.8007528556607</v>
+        <v>695.5020655703105</v>
       </c>
     </row>
     <row r="20">
@@ -5741,34 +5741,34 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J20" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q20" t="n">
         <v>4562.265728852255</v>
@@ -5829,28 +5829,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J21" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K21" t="n">
-        <v>577.3880777468471</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L21" t="n">
-        <v>1072.713683962606</v>
+        <v>589.1422692637306</v>
       </c>
       <c r="M21" t="n">
-        <v>1670.092171589158</v>
+        <v>1186.520756890282</v>
       </c>
       <c r="N21" t="n">
-        <v>2001.151557821488</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O21" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P21" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q21" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,19 +5884,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>874.8686257536381</v>
+        <v>513.8536007400718</v>
       </c>
       <c r="C22" t="n">
-        <v>705.9324428257312</v>
+        <v>344.9174178121649</v>
       </c>
       <c r="D22" t="n">
-        <v>555.8158034133954</v>
+        <v>194.8007783998291</v>
       </c>
       <c r="E22" t="n">
-        <v>407.9027098310023</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F22" t="n">
-        <v>261.0127623330919</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G22" t="n">
         <v>93.81666304797187</v>
@@ -5911,10 +5911,10 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
@@ -5926,34 +5926,34 @@
         <v>2035.089393279802</v>
       </c>
       <c r="P22" t="n">
-        <v>2327.76484885336</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
         <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2269.002343845332</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>2049.400878868273</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U22" t="n">
-        <v>2049.400878868273</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V22" t="n">
-        <v>1794.716390662386</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W22" t="n">
-        <v>1505.299220625426</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X22" t="n">
-        <v>1277.309669727408</v>
+        <v>916.2946447138416</v>
       </c>
       <c r="Y22" t="n">
-        <v>1056.517090583878</v>
+        <v>695.5020655703115</v>
       </c>
     </row>
     <row r="23">
@@ -5978,7 +5978,7 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H23" t="n">
         <v>93.81666304797187</v>
@@ -5987,25 +5987,25 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
         <v>4562.265728852255</v>
@@ -6063,28 +6063,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K24" t="n">
-        <v>93.81666304797187</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L24" t="n">
-        <v>93.81666304797187</v>
+        <v>924.8344286397182</v>
       </c>
       <c r="M24" t="n">
-        <v>680.0291294438176</v>
+        <v>924.8344286397182</v>
       </c>
       <c r="N24" t="n">
-        <v>1307.627092998424</v>
+        <v>1540.888753373307</v>
       </c>
       <c r="O24" t="n">
-        <v>1859.536823237711</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="P24" t="n">
-        <v>2283.159972732779</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q24" t="n">
         <v>2516.421633107662</v>
@@ -6121,19 +6121,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>705.9324428257312</v>
+        <v>513.8536007400697</v>
       </c>
       <c r="C25" t="n">
-        <v>705.9324428257312</v>
+        <v>344.9174178121629</v>
       </c>
       <c r="D25" t="n">
-        <v>555.8158034133954</v>
+        <v>194.8007783998271</v>
       </c>
       <c r="E25" t="n">
-        <v>407.9027098310023</v>
+        <v>194.8007783998271</v>
       </c>
       <c r="F25" t="n">
-        <v>261.0127623330919</v>
+        <v>194.8007783998271</v>
       </c>
       <c r="G25" t="n">
         <v>93.81666304797187</v>
@@ -6148,19 +6148,19 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
@@ -6169,28 +6169,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2264.108249235164</v>
+        <v>2197.062545487566</v>
       </c>
       <c r="T25" t="n">
-        <v>2044.506784258105</v>
+        <v>1977.461080510507</v>
       </c>
       <c r="U25" t="n">
-        <v>1755.431557602303</v>
+        <v>1688.385853854705</v>
       </c>
       <c r="V25" t="n">
-        <v>1500.747069396416</v>
+        <v>1433.701365648818</v>
       </c>
       <c r="W25" t="n">
-        <v>1336.363037697518</v>
+        <v>1144.284195611857</v>
       </c>
       <c r="X25" t="n">
-        <v>1108.373486799501</v>
+        <v>916.2946447138396</v>
       </c>
       <c r="Y25" t="n">
-        <v>887.5809076559709</v>
+        <v>695.5020655703095</v>
       </c>
     </row>
     <row r="26">
@@ -6206,37 +6206,37 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H26" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J26" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O26" t="n">
         <v>3640.42229106801</v>
@@ -6300,31 +6300,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J27" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L27" t="n">
-        <v>352.5519571452614</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>949.9304447718133</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="N27" t="n">
-        <v>1577.52840832642</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O27" t="n">
-        <v>2129.438138565707</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P27" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q27" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6358,37 +6358,37 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>951.7772127656161</v>
+        <v>513.8536007400713</v>
       </c>
       <c r="C28" t="n">
-        <v>782.8410298377092</v>
+        <v>344.9174178121644</v>
       </c>
       <c r="D28" t="n">
-        <v>632.7243904253735</v>
+        <v>194.8007783998287</v>
       </c>
       <c r="E28" t="n">
-        <v>484.8112968429803</v>
+        <v>194.8007783998287</v>
       </c>
       <c r="F28" t="n">
-        <v>484.8112968429803</v>
+        <v>194.8007783998287</v>
       </c>
       <c r="G28" t="n">
-        <v>317.6151975578603</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H28" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782955</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038341</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797742</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
@@ -6400,7 +6400,7 @@
         <v>2035.089393279802</v>
       </c>
       <c r="P28" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q28" t="n">
         <v>2446.96308358026</v>
@@ -6415,19 +6415,19 @@
         <v>1977.461080510509</v>
       </c>
       <c r="U28" t="n">
-        <v>1977.461080510509</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>1722.776592304622</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>1582.207807637403</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X28" t="n">
-        <v>1354.218256739386</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y28" t="n">
-        <v>1133.425677595856</v>
+        <v>695.5020655703111</v>
       </c>
     </row>
     <row r="29">
@@ -6458,31 +6458,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R29" t="n">
         <v>4690.833152398593</v>
@@ -6497,13 +6497,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y29" t="n">
         <v>2704.375866615997</v>
@@ -6537,31 +6537,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>243.4633055756266</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K30" t="n">
-        <v>280.8495004245706</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="L30" t="n">
-        <v>776.1751066403293</v>
+        <v>590.9096564684977</v>
       </c>
       <c r="M30" t="n">
-        <v>1373.553594266881</v>
+        <v>1188.28814409505</v>
       </c>
       <c r="N30" t="n">
-        <v>2001.151557821488</v>
+        <v>1815.886107649656</v>
       </c>
       <c r="O30" t="n">
-        <v>2553.061288060775</v>
+        <v>2367.795837888943</v>
       </c>
       <c r="P30" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q30" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,7 +6595,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>513.8536007400711</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C31" t="n">
         <v>391.8463960427007</v>
@@ -6622,10 +6622,10 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038344</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
@@ -6643,7 +6643,7 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832662</v>
       </c>
       <c r="S31" t="n">
         <v>2197.062545487567</v>
@@ -6661,7 +6661,7 @@
         <v>1144.284195611858</v>
       </c>
       <c r="X31" t="n">
-        <v>916.294644713841</v>
+        <v>916.2946447138409</v>
       </c>
       <c r="Y31" t="n">
         <v>695.5020655703108</v>
@@ -6686,7 +6686,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
         <v>379.8308874362686</v>
@@ -6695,31 +6695,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J32" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075822</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R32" t="n">
         <v>4690.833152398593</v>
@@ -6774,25 +6774,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J33" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>427.7414352191925</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="L33" t="n">
-        <v>776.1751066403293</v>
+        <v>740.5562989961525</v>
       </c>
       <c r="M33" t="n">
-        <v>1373.553594266881</v>
+        <v>949.9304447718133</v>
       </c>
       <c r="N33" t="n">
-        <v>2001.151557821488</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O33" t="n">
-        <v>2553.061288060775</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P33" t="n">
         <v>2553.061288060775</v>
@@ -6838,13 +6838,13 @@
         <v>344.9174178121641</v>
       </c>
       <c r="D34" t="n">
-        <v>344.9174178121641</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E34" t="n">
-        <v>344.9174178121641</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F34" t="n">
-        <v>198.0274703142537</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G34" t="n">
         <v>93.81666304797187</v>
@@ -6856,16 +6856,16 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782953</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038339</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L34" t="n">
-        <v>826.140538179774</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M34" t="n">
-        <v>1248.150240910808</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
         <v>1665.560112570817</v>
@@ -6874,7 +6874,7 @@
         <v>2035.089393279802</v>
       </c>
       <c r="P34" t="n">
-        <v>2327.76484885336</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
         <v>2446.96308358026</v>
@@ -6898,7 +6898,7 @@
         <v>1144.284195611858</v>
       </c>
       <c r="X34" t="n">
-        <v>916.2946447138409</v>
+        <v>916.294644713841</v>
       </c>
       <c r="Y34" t="n">
         <v>695.5020655703107</v>
@@ -6929,16 +6929,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
@@ -6947,10 +6947,10 @@
         <v>2206.558663014778</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P35" t="n">
         <v>4194.413870694707</v>
@@ -7008,31 +7008,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J36" t="n">
         <v>243.4633055756266</v>
       </c>
       <c r="K36" t="n">
-        <v>577.3880777468471</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L36" t="n">
-        <v>1072.713683962606</v>
+        <v>671.2000270096659</v>
       </c>
       <c r="M36" t="n">
-        <v>1670.092171589158</v>
+        <v>1268.578514636218</v>
       </c>
       <c r="N36" t="n">
-        <v>2129.438138565707</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="O36" t="n">
-        <v>2129.438138565707</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P36" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q36" t="n">
         <v>2553.061288060775</v>
@@ -7069,37 +7069,37 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>662.1522880254209</v>
+        <v>513.8536007400708</v>
       </c>
       <c r="C37" t="n">
-        <v>493.2161050975141</v>
+        <v>344.9174178121638</v>
       </c>
       <c r="D37" t="n">
-        <v>343.0994656851783</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E37" t="n">
-        <v>343.0994656851784</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F37" t="n">
-        <v>343.0994656851784</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G37" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H37" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797742</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
@@ -7135,10 +7135,10 @@
         <v>1144.284195611858</v>
       </c>
       <c r="X37" t="n">
-        <v>916.2946447138412</v>
+        <v>916.2946447138406</v>
       </c>
       <c r="Y37" t="n">
-        <v>843.8007528556607</v>
+        <v>695.5020655703105</v>
       </c>
     </row>
     <row r="38">
@@ -7160,34 +7160,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G38" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111711</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075804</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
         <v>4194.413870694707</v>
@@ -7199,25 +7199,25 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="39">
@@ -7245,31 +7245,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273902</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J39" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K39" t="n">
-        <v>579.1554649516142</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L39" t="n">
-        <v>1074.481071167373</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="M39" t="n">
-        <v>1671.859558793925</v>
+        <v>840.8417932021785</v>
       </c>
       <c r="N39" t="n">
-        <v>2299.457522348532</v>
+        <v>1468.439756756785</v>
       </c>
       <c r="O39" t="n">
-        <v>2553.061288060775</v>
+        <v>2020.349486996072</v>
       </c>
       <c r="P39" t="n">
-        <v>2553.061288060775</v>
+        <v>2443.97263649114</v>
       </c>
       <c r="Q39" t="n">
         <v>2553.061288060775</v>
@@ -7306,37 +7306,37 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>513.8536007400709</v>
+        <v>513.8536007400705</v>
       </c>
       <c r="C40" t="n">
-        <v>344.917417812164</v>
+        <v>344.9174178121636</v>
       </c>
       <c r="D40" t="n">
-        <v>261.0127623330919</v>
+        <v>194.8007783998279</v>
       </c>
       <c r="E40" t="n">
-        <v>261.0127623330919</v>
+        <v>194.8007783998279</v>
       </c>
       <c r="F40" t="n">
-        <v>261.0127623330919</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G40" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
@@ -7348,13 +7348,13 @@
         <v>2035.089393279802</v>
       </c>
       <c r="P40" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q40" t="n">
         <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832662</v>
       </c>
       <c r="S40" t="n">
         <v>2197.062545487567</v>
@@ -7363,19 +7363,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854705</v>
       </c>
       <c r="V40" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.701365648818</v>
       </c>
       <c r="W40" t="n">
         <v>1144.284195611858</v>
       </c>
       <c r="X40" t="n">
-        <v>916.2946447138409</v>
+        <v>916.2946447138404</v>
       </c>
       <c r="Y40" t="n">
-        <v>695.5020655703106</v>
+        <v>695.5020655703103</v>
       </c>
     </row>
     <row r="41">
@@ -7397,7 +7397,7 @@
         <v>1204.759558406468</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
         <v>379.8308874362686</v>
@@ -7406,22 +7406,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
         <v>3640.42229106801</v>
@@ -7485,31 +7485,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="L42" t="n">
-        <v>119.290296770379</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="M42" t="n">
-        <v>716.6687843969308</v>
+        <v>692.9625378792909</v>
       </c>
       <c r="N42" t="n">
-        <v>1344.266747951538</v>
+        <v>1320.560501433898</v>
       </c>
       <c r="O42" t="n">
-        <v>1896.176478190825</v>
+        <v>1872.470231673185</v>
       </c>
       <c r="P42" t="n">
-        <v>2319.799627685893</v>
+        <v>2296.093381168253</v>
       </c>
       <c r="Q42" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7543,37 +7543,37 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>696.7084350851665</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C43" t="n">
-        <v>527.7722521572597</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D43" t="n">
-        <v>527.7722521572597</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E43" t="n">
-        <v>484.8112968429803</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F43" t="n">
-        <v>484.8112968429802</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G43" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H43" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797742</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
@@ -7594,25 +7594,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>2160.315914855604</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U43" t="n">
-        <v>1871.240688199801</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V43" t="n">
-        <v>1616.556199993914</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W43" t="n">
-        <v>1327.139029956954</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X43" t="n">
-        <v>1099.149479058936</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y43" t="n">
-        <v>878.3568999154062</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="44">
@@ -7640,16 +7640,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I44" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111712</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
@@ -7667,7 +7667,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q44" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R44" t="n">
         <v>4690.833152398593</v>
@@ -7682,13 +7682,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y44" t="n">
         <v>2704.375866615997</v>
@@ -7734,19 +7734,19 @@
         <v>1072.713683962606</v>
       </c>
       <c r="M45" t="n">
-        <v>1670.092171589158</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="N45" t="n">
-        <v>2297.690135143765</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O45" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P45" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q45" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,19 +7780,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>513.8536007400708</v>
+        <v>513.8536007400714</v>
       </c>
       <c r="C46" t="n">
-        <v>344.9174178121639</v>
+        <v>344.9174178121646</v>
       </c>
       <c r="D46" t="n">
-        <v>194.8007783998282</v>
+        <v>194.8007783998288</v>
       </c>
       <c r="E46" t="n">
-        <v>93.81666304797187</v>
+        <v>194.8007783998288</v>
       </c>
       <c r="F46" t="n">
-        <v>93.81666304797187</v>
+        <v>194.8007783998288</v>
       </c>
       <c r="G46" t="n">
         <v>93.81666304797187</v>
@@ -7810,16 +7810,16 @@
         <v>435.7419440038342</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797742</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P46" t="n">
         <v>2327.764848853361</v>
@@ -7828,13 +7828,13 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832662</v>
       </c>
       <c r="S46" t="n">
         <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
         <v>1688.385853854706</v>
@@ -7849,7 +7849,7 @@
         <v>916.2946447138406</v>
       </c>
       <c r="Y46" t="n">
-        <v>695.5020655703105</v>
+        <v>695.5020655703112</v>
       </c>
     </row>
   </sheetData>
@@ -23255,28 +23255,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>166.7715999118234</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>289.9775033393748</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>24.14662204184548</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23306,7 +23306,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>98.88510599615208</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -23324,7 +23324,7 @@
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>309.575171134964</v>
       </c>
     </row>
     <row r="12">
@@ -23413,28 +23413,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>43.10654495411828</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>83.33487792017226</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.8230033569236</v>
       </c>
       <c r="H13" t="n">
         <v>142.9518949665179</v>
       </c>
       <c r="I13" t="n">
-        <v>90.25352389927379</v>
+        <v>90.25352389927373</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,16 +23461,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>79.81330679905246</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>218.682419239904</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2007761200435</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23659,19 +23659,19 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>128.4813855737337</v>
+        <v>40.32043864788469</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,7 +23698,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23719,7 +23719,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23893,7 +23893,7 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>65.54986409393102</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
@@ -23908,7 +23908,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23938,7 +23938,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>146.8157004124948</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -24133,13 +24133,13 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>46.45968844823048</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
         <v>140.2947128462239</v>
@@ -24172,16 +24172,16 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>4.845153664065069</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24364,19 +24364,19 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>65.54986409393217</v>
       </c>
       <c r="H25" t="n">
         <v>140.2947128462239</v>
@@ -24409,7 +24409,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24424,7 +24424,7 @@
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>123.7828069546819</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -24607,19 +24607,19 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>65.54986409393055</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24655,13 +24655,13 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>147.3599015160447</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -24838,7 +24838,7 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>46.45968844823122</v>
+        <v>46.45968844823102</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -25078,16 +25078,16 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>46.45968844823122</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>62.35543909864982</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
         <v>140.2947128462239</v>
@@ -25315,22 +25315,22 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>46.45968844823152</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25378,7 +25378,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>146.8157004124961</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25552,16 +25552,16 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>65.54986409393102</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>45.44677382459376</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
         <v>140.2947128462239</v>
@@ -25786,25 +25786,25 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>46.45968844823102</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>103.9026168854325</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25834,7 +25834,7 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -26029,13 +26029,13 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>46.45968844823144</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>65.54986409393049</v>
       </c>
       <c r="H46" t="n">
         <v>140.2947128462239</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>948079.9976451382</v>
+        <v>948079.9976451391</v>
       </c>
     </row>
     <row r="6">
@@ -26311,7 +26311,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>389994.8406855343</v>
+        <v>389994.8406855342</v>
       </c>
       <c r="C2" t="n">
         <v>389994.8406855345</v>
@@ -26320,7 +26320,7 @@
         <v>389994.8406855346</v>
       </c>
       <c r="E2" t="n">
-        <v>347979.8910303376</v>
+        <v>347979.8910303381</v>
       </c>
       <c r="F2" t="n">
         <v>383394.634852753</v>
@@ -26329,28 +26329,28 @@
         <v>383394.634852753</v>
       </c>
       <c r="H2" t="n">
-        <v>383394.6348527527</v>
+        <v>383394.634852753</v>
       </c>
       <c r="I2" t="n">
-        <v>383394.6348527527</v>
+        <v>383394.6348527528</v>
       </c>
       <c r="J2" t="n">
+        <v>383394.6348527528</v>
+      </c>
+      <c r="K2" t="n">
+        <v>383394.6348527529</v>
+      </c>
+      <c r="L2" t="n">
         <v>383394.634852753</v>
       </c>
-      <c r="K2" t="n">
+      <c r="M2" t="n">
+        <v>383394.6348527529</v>
+      </c>
+      <c r="N2" t="n">
+        <v>383394.6348527529</v>
+      </c>
+      <c r="O2" t="n">
         <v>383394.6348527528</v>
-      </c>
-      <c r="L2" t="n">
-        <v>383394.6348527528</v>
-      </c>
-      <c r="M2" t="n">
-        <v>383394.634852753</v>
-      </c>
-      <c r="N2" t="n">
-        <v>383394.6348527528</v>
-      </c>
-      <c r="O2" t="n">
-        <v>383394.6348527529</v>
       </c>
       <c r="P2" t="n">
         <v>383394.6348527529</v>
@@ -26363,19 +26363,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>591356.9025208452</v>
+        <v>591356.9025208449</v>
       </c>
       <c r="C3" t="n">
-        <v>392510.2442861779</v>
+        <v>392510.244286178</v>
       </c>
       <c r="D3" t="n">
-        <v>12262.85603264304</v>
+        <v>12262.85603264358</v>
       </c>
       <c r="E3" t="n">
-        <v>395943.9567674485</v>
+        <v>395943.9567674494</v>
       </c>
       <c r="F3" t="n">
-        <v>189308.2687704299</v>
+        <v>189308.2687704284</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26387,19 +26387,19 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>49064.94472854456</v>
+        <v>49064.94472854453</v>
       </c>
       <c r="K3" t="n">
-        <v>91259.95686487782</v>
+        <v>91259.95686487779</v>
       </c>
       <c r="L3" t="n">
-        <v>3074.447349949852</v>
+        <v>3074.447349950082</v>
       </c>
       <c r="M3" t="n">
-        <v>103409.2608931114</v>
+        <v>103409.2608931117</v>
       </c>
       <c r="N3" t="n">
-        <v>49839.57413202386</v>
+        <v>49839.5741320235</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -26421,7 +26421,7 @@
         <v>174202.9900888977</v>
       </c>
       <c r="D4" t="n">
-        <v>170817.8827607418</v>
+        <v>170817.8827607416</v>
       </c>
       <c r="E4" t="n">
         <v>14721.27748222082</v>
@@ -26433,25 +26433,25 @@
         <v>14826.69604186736</v>
       </c>
       <c r="H4" t="n">
+        <v>14826.69604186736</v>
+      </c>
+      <c r="I4" t="n">
+        <v>14826.69604186734</v>
+      </c>
+      <c r="J4" t="n">
+        <v>14826.69604186738</v>
+      </c>
+      <c r="K4" t="n">
         <v>14826.69604186737</v>
-      </c>
-      <c r="I4" t="n">
-        <v>14826.69604186735</v>
-      </c>
-      <c r="J4" t="n">
-        <v>14826.69604186737</v>
-      </c>
-      <c r="K4" t="n">
-        <v>14826.69604186736</v>
       </c>
       <c r="L4" t="n">
         <v>14826.69604186736</v>
       </c>
       <c r="M4" t="n">
-        <v>14826.6960418674</v>
+        <v>14826.69604186736</v>
       </c>
       <c r="N4" t="n">
-        <v>14826.6960418674</v>
+        <v>14826.69604186736</v>
       </c>
       <c r="O4" t="n">
         <v>14826.69604186738</v>
@@ -26467,16 +26467,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>56985.80041161356</v>
+        <v>56985.80041161354</v>
       </c>
       <c r="C5" t="n">
         <v>85199.08185587224</v>
       </c>
       <c r="D5" t="n">
-        <v>86153.75444404171</v>
+        <v>86153.75444404176</v>
       </c>
       <c r="E5" t="n">
-        <v>85137.4850673856</v>
+        <v>85137.48506738571</v>
       </c>
       <c r="F5" t="n">
         <v>101122.5298239071</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-536884.4270810544</v>
+        <v>-536884.4270810543</v>
       </c>
       <c r="C6" t="n">
-        <v>-261917.4755454133</v>
+        <v>-261917.4755454134</v>
       </c>
       <c r="D6" t="n">
-        <v>120760.3474481081</v>
+        <v>120760.3474481076</v>
       </c>
       <c r="E6" t="n">
-        <v>-147822.8282867173</v>
+        <v>-148043.9596006926</v>
       </c>
       <c r="F6" t="n">
-        <v>78137.14021654859</v>
+        <v>78102.40229111438</v>
       </c>
       <c r="G6" t="n">
-        <v>267445.4089869787</v>
+        <v>267410.6710615428</v>
       </c>
       <c r="H6" t="n">
-        <v>267445.4089869782</v>
+        <v>267410.6710615428</v>
       </c>
       <c r="I6" t="n">
-        <v>267445.4089869782</v>
+        <v>267410.6710615427</v>
       </c>
       <c r="J6" t="n">
-        <v>218380.4642584339</v>
+        <v>218345.7263329981</v>
       </c>
       <c r="K6" t="n">
-        <v>176185.4521221005</v>
+        <v>176150.7141966649</v>
       </c>
       <c r="L6" t="n">
-        <v>264370.9616370284</v>
+        <v>264336.2237115927</v>
       </c>
       <c r="M6" t="n">
-        <v>164036.148093867</v>
+        <v>164001.410168431</v>
       </c>
       <c r="N6" t="n">
-        <v>217605.8348549544</v>
+        <v>217571.0969295192</v>
       </c>
       <c r="O6" t="n">
-        <v>267445.4089869784</v>
+        <v>267410.6710615426</v>
       </c>
       <c r="P6" t="n">
-        <v>267445.4089869784</v>
+        <v>267410.6710615427</v>
       </c>
     </row>
   </sheetData>
@@ -26735,16 +26735,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>548.4699409129043</v>
+        <v>548.4699409129042</v>
       </c>
       <c r="C3" t="n">
         <v>853.7106645376841</v>
       </c>
       <c r="D3" t="n">
-        <v>863.6234498573216</v>
+        <v>863.6234498573219</v>
       </c>
       <c r="E3" t="n">
-        <v>1202.24123721495</v>
+        <v>1202.241237214951</v>
       </c>
       <c r="F3" t="n">
         <v>1367.975500341674</v>
@@ -26787,16 +26787,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>187.5255871663197</v>
+        <v>187.5255871663196</v>
       </c>
       <c r="C4" t="n">
-        <v>542.1149567261633</v>
+        <v>542.1149567261631</v>
       </c>
       <c r="D4" t="n">
-        <v>554.2625532426332</v>
+        <v>554.2625532426338</v>
       </c>
       <c r="E4" t="n">
-        <v>969.2208239490081</v>
+        <v>969.2208239490096</v>
       </c>
       <c r="F4" t="n">
         <v>1172.708288099648</v>
@@ -26957,19 +26957,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>548.4699409129043</v>
+        <v>548.4699409129042</v>
       </c>
       <c r="C3" t="n">
-        <v>305.2407236247798</v>
+        <v>305.2407236247799</v>
       </c>
       <c r="D3" t="n">
-        <v>9.912785319637459</v>
+        <v>9.912785319637806</v>
       </c>
       <c r="E3" t="n">
-        <v>338.6177873576281</v>
+        <v>338.6177873576289</v>
       </c>
       <c r="F3" t="n">
-        <v>165.7342631267243</v>
+        <v>165.7342631267229</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -27009,19 +27009,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>187.5255871663197</v>
+        <v>187.5255871663196</v>
       </c>
       <c r="C4" t="n">
-        <v>354.5893695598436</v>
+        <v>354.5893695598435</v>
       </c>
       <c r="D4" t="n">
-        <v>12.14759651646989</v>
+        <v>12.14759651647068</v>
       </c>
       <c r="E4" t="n">
-        <v>414.9582707063749</v>
+        <v>414.9582707063759</v>
       </c>
       <c r="F4" t="n">
-        <v>203.4874641506402</v>
+        <v>203.4874641506387</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -27033,19 +27033,19 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>187.5255871663197</v>
+        <v>187.5255871663196</v>
       </c>
       <c r="K4" t="n">
-        <v>354.5893695598436</v>
+        <v>354.5893695598435</v>
       </c>
       <c r="L4" t="n">
-        <v>12.14759651646978</v>
+        <v>12.14759651647068</v>
       </c>
       <c r="M4" t="n">
-        <v>414.9582707063747</v>
+        <v>414.9582707063759</v>
       </c>
       <c r="N4" t="n">
-        <v>203.4874641506402</v>
+        <v>203.4874641506387</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27255,19 +27255,19 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>187.5255871663197</v>
+        <v>187.5255871663196</v>
       </c>
       <c r="K4" t="n">
-        <v>354.5893695598436</v>
+        <v>354.5893695598435</v>
       </c>
       <c r="L4" t="n">
-        <v>12.14759651646989</v>
+        <v>12.14759651647068</v>
       </c>
       <c r="M4" t="n">
-        <v>414.9582707063749</v>
+        <v>414.9582707063759</v>
       </c>
       <c r="N4" t="n">
-        <v>203.4874641506402</v>
+        <v>203.4874641506387</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27382,22 +27382,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>314.9818215645633</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>194.4047829059421</v>
       </c>
       <c r="F2" t="n">
-        <v>219.3504585753917</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>225.5722460637383</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>129.3682389399026</v>
+        <v>129.3682389399027</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>125.4713171199748</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27424,10 +27424,10 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>77.08171901666384</v>
+        <v>77.0817190166639</v>
       </c>
       <c r="S2" t="n">
-        <v>158.7758131900531</v>
+        <v>158.7758131900532</v>
       </c>
       <c r="T2" t="n">
         <v>213.4438810562068</v>
@@ -27436,13 +27436,13 @@
         <v>251.1692605650303</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>140.2266713038153</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>224.5324424741442</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -27461,7 +27461,7 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>147.4450655646388</v>
+        <v>111.0503695630419</v>
       </c>
       <c r="E3" t="n">
         <v>157.6450804554009</v>
@@ -27476,10 +27476,10 @@
         <v>100.8417573507397</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>58.90455890409152</v>
       </c>
       <c r="J3" t="n">
-        <v>15.37922103265844</v>
+        <v>15.37922103265846</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -27503,10 +27503,10 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>72.43289562846323</v>
+        <v>72.43289562846324</v>
       </c>
       <c r="S3" t="n">
-        <v>149.7702446909496</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
         <v>195.4095977920013</v>
@@ -27515,13 +27515,13 @@
         <v>225.8637684100909</v>
       </c>
       <c r="V3" t="n">
-        <v>105.54020536097</v>
+        <v>45.27499998310563</v>
       </c>
       <c r="W3" t="n">
-        <v>64.16939599459988</v>
+        <v>64.16939599459997</v>
       </c>
       <c r="X3" t="n">
-        <v>18.24739803715775</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
         <v>205.6826957773044</v>
@@ -27540,7 +27540,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>96.39952676377818</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
@@ -27558,10 +27558,10 @@
         <v>125.7072197708667</v>
       </c>
       <c r="J4" t="n">
-        <v>57.06999962825421</v>
+        <v>57.06999962825422</v>
       </c>
       <c r="K4" t="n">
-        <v>14.10430989402857</v>
+        <v>14.10430989402859</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -27576,10 +27576,10 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>18.10760906709392</v>
+        <v>18.10760906709393</v>
       </c>
       <c r="Q4" t="n">
-        <v>68.68604055159729</v>
+        <v>68.6860405515973</v>
       </c>
       <c r="R4" t="n">
         <v>132.8223696106904</v>
@@ -27594,7 +27594,7 @@
         <v>286.2650814934503</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>199.921697069394</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
@@ -27613,7 +27613,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>26.70764993132019</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -27625,16 +27625,16 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>358.5585260346603</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>304.326804756183</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>78.16360657708299</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27664,22 +27664,22 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>130.8133087092504</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.0710926941158</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -27692,28 +27692,28 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>28.99897531364678</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
         <v>135.5072338470353</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>94.50081326185514</v>
       </c>
       <c r="I6" t="n">
-        <v>36.29946757904885</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27743,22 +27743,22 @@
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>137.5750138932992</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>192.7632183107638</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
         <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>84.09892026570466</v>
       </c>
       <c r="W6" t="n">
         <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
         <v>0</v>
@@ -27774,7 +27774,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
@@ -27795,7 +27795,7 @@
         <v>109.1541654470835</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>18.15430933923925</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27819,7 +27819,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>41.10541474989616</v>
+        <v>108.0728512656386</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -27828,7 +27828,7 @@
         <v>221.3678187343026</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2350578157167</v>
+        <v>33.86649086210716</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
@@ -27850,16 +27850,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>346.4807101247437</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>177.2941398230448</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
@@ -27868,10 +27868,10 @@
         <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>303.918686916365</v>
+        <v>303.9186869163649</v>
       </c>
       <c r="I8" t="n">
-        <v>76.62727429151386</v>
+        <v>76.6272742915138</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,16 +27901,16 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>129.9052178731852</v>
+        <v>129.9052178731851</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.0679046626562</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
@@ -27929,28 +27929,28 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E9" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>135.4859120069138</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>35.56536036433985</v>
+        <v>35.56536036433982</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -27977,25 +27977,25 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>30.34503645282952</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>137.1789700647269</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
         <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>126.5063368549212</v>
+        <v>0</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
       </c>
       <c r="W9" t="n">
-        <v>0</v>
+        <v>129.5046447027145</v>
       </c>
       <c r="X9" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y9" t="n">
         <v>0</v>
@@ -28032,7 +28032,7 @@
         <v>108.6165999743399</v>
       </c>
       <c r="J10" t="n">
-        <v>16.89051046332416</v>
+        <v>16.89051046332412</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28053,7 +28053,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>21.09786070099022</v>
       </c>
       <c r="R10" t="n">
         <v>107.2691031313611</v>
@@ -28065,16 +28065,16 @@
         <v>221.2914415359382</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>51.55798556746225</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>46.22785833366225</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -28545,7 +28545,7 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>1.319714707885093e-12</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -28749,7 +28749,7 @@
         <v>0</v>
       </c>
       <c r="L19" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="M19" t="n">
         <v>0</v>
@@ -28998,10 +28998,10 @@
         <v>0</v>
       </c>
       <c r="P22" t="n">
-        <v>0</v>
+        <v>3.410605131648481e-13</v>
       </c>
       <c r="Q22" t="n">
-        <v>4.405364961712621e-13</v>
+        <v>0</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -29238,13 +29238,13 @@
         <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>-4.973799150320701e-13</v>
+        <v>0</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>-1.477928890381008e-12</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -29272,7 +29272,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
@@ -29290,7 +29290,7 @@
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -29566,7 +29566,7 @@
         <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>2.557953848736361e-13</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -30034,7 +30034,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>9.426059932593489e-13</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
         <v>0</v>
@@ -30220,7 +30220,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>9.003997547551989e-13</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
@@ -30469,10 +30469,10 @@
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="G41" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -31039,46 +31039,46 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>2.204904285077001</v>
+        <v>2.204904285077</v>
       </c>
       <c r="H2" t="n">
-        <v>22.58097600954484</v>
+        <v>22.58097600954483</v>
       </c>
       <c r="I2" t="n">
-        <v>85.00457245043116</v>
+        <v>85.00457245043114</v>
       </c>
       <c r="J2" t="n">
-        <v>187.1384950655543</v>
+        <v>187.1384950655542</v>
       </c>
       <c r="K2" t="n">
-        <v>280.4720934528638</v>
+        <v>280.4720934528637</v>
       </c>
       <c r="L2" t="n">
-        <v>347.9504329672891</v>
+        <v>347.950432967289</v>
       </c>
       <c r="M2" t="n">
-        <v>387.1618995470272</v>
+        <v>387.1618995470271</v>
       </c>
       <c r="N2" t="n">
         <v>393.4265838470022</v>
       </c>
       <c r="O2" t="n">
-        <v>371.5015668622678</v>
+        <v>371.5015668622677</v>
       </c>
       <c r="P2" t="n">
-        <v>317.0679923244293</v>
+        <v>317.0679923244292</v>
       </c>
       <c r="Q2" t="n">
         <v>238.1048576151091</v>
       </c>
       <c r="R2" t="n">
-        <v>138.5038187974683</v>
+        <v>138.5038187974682</v>
       </c>
       <c r="S2" t="n">
-        <v>50.24425639619221</v>
+        <v>50.24425639619219</v>
       </c>
       <c r="T2" t="n">
-        <v>9.651968507924575</v>
+        <v>9.651968507924574</v>
       </c>
       <c r="U2" t="n">
         <v>0.17639234280616</v>
@@ -31124,43 +31124,43 @@
         <v>11.39368688575675</v>
       </c>
       <c r="I3" t="n">
-        <v>40.61782109590849</v>
+        <v>40.61782109590848</v>
       </c>
       <c r="J3" t="n">
-        <v>111.4584056340083</v>
+        <v>111.4584056340082</v>
       </c>
       <c r="K3" t="n">
-        <v>190.5001680621736</v>
+        <v>190.5001680621735</v>
       </c>
       <c r="L3" t="n">
-        <v>256.1509851405032</v>
+        <v>256.1509851405031</v>
       </c>
       <c r="M3" t="n">
         <v>298.9161177975328</v>
       </c>
       <c r="N3" t="n">
-        <v>306.8275379829653</v>
+        <v>306.8275379829652</v>
       </c>
       <c r="O3" t="n">
-        <v>280.6872536292672</v>
+        <v>280.6872536292671</v>
       </c>
       <c r="P3" t="n">
-        <v>225.2762668628871</v>
+        <v>225.276266862887</v>
       </c>
       <c r="Q3" t="n">
         <v>150.5912184936714</v>
       </c>
       <c r="R3" t="n">
-        <v>73.24660833550072</v>
+        <v>73.24660833550071</v>
       </c>
       <c r="S3" t="n">
         <v>21.91292641288819</v>
       </c>
       <c r="T3" t="n">
-        <v>4.755130902820367</v>
+        <v>4.755130902820366</v>
       </c>
       <c r="U3" t="n">
-        <v>0.07761367088390159</v>
+        <v>0.07761367088390157</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,49 +31197,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.9890441557445815</v>
+        <v>0.9890441557445813</v>
       </c>
       <c r="H4" t="n">
-        <v>8.793501675620012</v>
+        <v>8.793501675620011</v>
       </c>
       <c r="I4" t="n">
         <v>29.7432551563916</v>
       </c>
       <c r="J4" t="n">
-        <v>69.9254218111419</v>
+        <v>69.92542181114189</v>
       </c>
       <c r="K4" t="n">
         <v>114.9089482765068</v>
       </c>
       <c r="L4" t="n">
-        <v>147.043892027699</v>
+        <v>147.0438920276989</v>
       </c>
       <c r="M4" t="n">
         <v>155.0371670682165</v>
       </c>
       <c r="N4" t="n">
-        <v>151.3507297604414</v>
+        <v>151.3507297604413</v>
       </c>
       <c r="O4" t="n">
-        <v>139.7968957592433</v>
+        <v>139.7968957592432</v>
       </c>
       <c r="P4" t="n">
         <v>119.6203949820537</v>
       </c>
       <c r="Q4" t="n">
-        <v>82.81896107784856</v>
+        <v>82.81896107784854</v>
       </c>
       <c r="R4" t="n">
-        <v>44.47102176647908</v>
+        <v>44.47102176647907</v>
       </c>
       <c r="S4" t="n">
         <v>17.23634224147602</v>
       </c>
       <c r="T4" t="n">
-        <v>4.225915938181393</v>
+        <v>4.225915938181392</v>
       </c>
       <c r="U4" t="n">
-        <v>0.0539478630406136</v>
+        <v>0.05394786304061359</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31513,49 +31513,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>3.471853064753049</v>
+        <v>3.47185306475305</v>
       </c>
       <c r="H8" t="n">
-        <v>35.55611519940217</v>
+        <v>35.55611519940219</v>
       </c>
       <c r="I8" t="n">
         <v>133.8486152788921</v>
       </c>
       <c r="J8" t="n">
-        <v>294.6691890545844</v>
+        <v>294.6691890545845</v>
       </c>
       <c r="K8" t="n">
-        <v>441.632729285581</v>
+        <v>441.6327292855812</v>
       </c>
       <c r="L8" t="n">
-        <v>547.8844525160173</v>
+        <v>547.8844525160175</v>
       </c>
       <c r="M8" t="n">
-        <v>609.6270194563192</v>
+        <v>609.6270194563195</v>
       </c>
       <c r="N8" t="n">
-        <v>619.491421976549</v>
+        <v>619.4914219765492</v>
       </c>
       <c r="O8" t="n">
-        <v>584.9681830639107</v>
+        <v>584.9681830639109</v>
       </c>
       <c r="P8" t="n">
-        <v>499.2568105278198</v>
+        <v>499.2568105278199</v>
       </c>
       <c r="Q8" t="n">
-        <v>374.9210726463511</v>
+        <v>374.9210726463512</v>
       </c>
       <c r="R8" t="n">
-        <v>218.0887900787939</v>
+        <v>218.088790078794</v>
       </c>
       <c r="S8" t="n">
-        <v>79.11485171306018</v>
+        <v>79.11485171306022</v>
       </c>
       <c r="T8" t="n">
-        <v>15.19803679095648</v>
+        <v>15.19803679095649</v>
       </c>
       <c r="U8" t="n">
-        <v>0.2777482451802439</v>
+        <v>0.277748245180244</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,46 +31592,46 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>1.85760515629688</v>
+        <v>1.857605156296881</v>
       </c>
       <c r="H9" t="n">
-        <v>17.9405550621304</v>
+        <v>17.94055506213041</v>
       </c>
       <c r="I9" t="n">
-        <v>63.95701963566015</v>
+        <v>63.95701963566017</v>
       </c>
       <c r="J9" t="n">
         <v>175.5029503148733</v>
       </c>
       <c r="K9" t="n">
-        <v>299.9624957867642</v>
+        <v>299.9624957867644</v>
       </c>
       <c r="L9" t="n">
-        <v>403.3365932564784</v>
+        <v>403.3365932564786</v>
       </c>
       <c r="M9" t="n">
-        <v>470.6747801722402</v>
+        <v>470.6747801722404</v>
       </c>
       <c r="N9" t="n">
-        <v>483.1321410668804</v>
+        <v>483.1321410668805</v>
       </c>
       <c r="O9" t="n">
-        <v>441.9715215510389</v>
+        <v>441.9715215510391</v>
       </c>
       <c r="P9" t="n">
-        <v>354.7211109423403</v>
+        <v>354.7211109423404</v>
       </c>
       <c r="Q9" t="n">
-        <v>237.1216687230895</v>
+        <v>237.1216687230896</v>
       </c>
       <c r="R9" t="n">
-        <v>115.3344675111344</v>
+        <v>115.3344675111345</v>
       </c>
       <c r="S9" t="n">
-        <v>34.50420103911089</v>
+        <v>34.5042010391109</v>
       </c>
       <c r="T9" t="n">
-        <v>7.487452362442248</v>
+        <v>7.487452362442251</v>
       </c>
       <c r="U9" t="n">
         <v>0.1222108655458475</v>
@@ -31671,49 +31671,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.557353762037793</v>
+        <v>1.557353762037794</v>
       </c>
       <c r="H10" t="n">
         <v>13.8462907206633</v>
       </c>
       <c r="I10" t="n">
-        <v>46.83387495291836</v>
+        <v>46.83387495291839</v>
       </c>
       <c r="J10" t="n">
-        <v>110.1049109760719</v>
+        <v>110.104910976072</v>
       </c>
       <c r="K10" t="n">
-        <v>180.9361916258453</v>
+        <v>180.9361916258454</v>
       </c>
       <c r="L10" t="n">
-        <v>231.5360311306006</v>
+        <v>231.5360311306007</v>
       </c>
       <c r="M10" t="n">
-        <v>244.1222810801605</v>
+        <v>244.1222810801606</v>
       </c>
       <c r="N10" t="n">
-        <v>238.3175988762017</v>
+        <v>238.3175988762018</v>
       </c>
       <c r="O10" t="n">
-        <v>220.1248753833056</v>
+        <v>220.1248753833057</v>
       </c>
       <c r="P10" t="n">
-        <v>188.3548586377344</v>
+        <v>188.3548586377345</v>
       </c>
       <c r="Q10" t="n">
         <v>130.4071409284556</v>
       </c>
       <c r="R10" t="n">
-        <v>70.02428824580838</v>
+        <v>70.02428824580841</v>
       </c>
       <c r="S10" t="n">
-        <v>27.1404287438768</v>
+        <v>27.14042874387681</v>
       </c>
       <c r="T10" t="n">
-        <v>6.654147892343295</v>
+        <v>6.654147892343298</v>
       </c>
       <c r="U10" t="n">
-        <v>0.08494656883842516</v>
+        <v>0.08494656883842519</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31750,49 +31750,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>4.833130601869141</v>
+        <v>4.833130601869145</v>
       </c>
       <c r="H11" t="n">
-        <v>49.49729877639235</v>
+        <v>49.4972987763924</v>
       </c>
       <c r="I11" t="n">
-        <v>186.3292675285602</v>
+        <v>186.3292675285604</v>
       </c>
       <c r="J11" t="n">
-        <v>410.2059184203914</v>
+        <v>410.2059184203918</v>
       </c>
       <c r="K11" t="n">
-        <v>614.7923367975122</v>
+        <v>614.7923367975128</v>
       </c>
       <c r="L11" t="n">
-        <v>762.7042574544651</v>
+        <v>762.7042574544658</v>
       </c>
       <c r="M11" t="n">
-        <v>848.6554437954554</v>
+        <v>848.6554437954562</v>
       </c>
       <c r="N11" t="n">
-        <v>862.3875761180162</v>
+        <v>862.387576118017</v>
       </c>
       <c r="O11" t="n">
-        <v>814.3281336956799</v>
+        <v>814.3281336956807</v>
       </c>
       <c r="P11" t="n">
-        <v>695.0102219620353</v>
+        <v>695.010221962036</v>
       </c>
       <c r="Q11" t="n">
-        <v>521.9237322825966</v>
+        <v>521.923732282597</v>
       </c>
       <c r="R11" t="n">
-        <v>303.5991401696627</v>
+        <v>303.599140169663</v>
       </c>
       <c r="S11" t="n">
-        <v>110.1349635900932</v>
+        <v>110.1349635900933</v>
       </c>
       <c r="T11" t="n">
-        <v>21.15702920968218</v>
+        <v>21.1570292096822</v>
       </c>
       <c r="U11" t="n">
-        <v>0.3866504481495312</v>
+        <v>0.3866504481495315</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,49 +31829,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.585952849858571</v>
+        <v>2.585952849858574</v>
       </c>
       <c r="H12" t="n">
-        <v>24.97486041837094</v>
+        <v>24.97486041837097</v>
       </c>
       <c r="I12" t="n">
-        <v>89.03390294469204</v>
+        <v>89.03390294469213</v>
       </c>
       <c r="J12" t="n">
-        <v>244.3158348193136</v>
+        <v>244.3158348193138</v>
       </c>
       <c r="K12" t="n">
-        <v>417.5746757598378</v>
+        <v>417.5746757598382</v>
       </c>
       <c r="L12" t="n">
-        <v>361.4465038393454</v>
+        <v>346.5700931427883</v>
       </c>
       <c r="M12" t="n">
-        <v>655.2214742821475</v>
+        <v>655.2214742821482</v>
       </c>
       <c r="N12" t="n">
-        <v>672.5632370340501</v>
+        <v>672.5632370340506</v>
       </c>
       <c r="O12" t="n">
-        <v>615.263965992447</v>
+        <v>615.2639659924475</v>
       </c>
       <c r="P12" t="n">
-        <v>493.8035753383442</v>
+        <v>493.8035753383447</v>
       </c>
       <c r="Q12" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
-        <v>145.679503963964</v>
+        <v>160.5559146605175</v>
       </c>
       <c r="S12" t="n">
-        <v>48.0329399962765</v>
+        <v>48.03293999627655</v>
       </c>
       <c r="T12" t="n">
-        <v>10.42320468868432</v>
+        <v>10.42320468868433</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1701284769643797</v>
+        <v>0.1701284769643799</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31908,49 +31908,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>2.167976001535155</v>
+        <v>2.167976001535157</v>
       </c>
       <c r="H13" t="n">
-        <v>19.27527754092166</v>
+        <v>19.27527754092168</v>
       </c>
       <c r="I13" t="n">
-        <v>65.1969510279845</v>
+        <v>65.19695102798455</v>
       </c>
       <c r="J13" t="n">
-        <v>153.2759033085354</v>
+        <v>153.2759033085356</v>
       </c>
       <c r="K13" t="n">
-        <v>251.8793936329025</v>
+        <v>251.8793936329027</v>
       </c>
       <c r="L13" t="n">
-        <v>322.3189048100539</v>
+        <v>322.3189048100542</v>
       </c>
       <c r="M13" t="n">
-        <v>339.8400926770061</v>
+        <v>339.8400926770065</v>
       </c>
       <c r="N13" t="n">
-        <v>331.7594548531026</v>
+        <v>331.759454853103</v>
       </c>
       <c r="O13" t="n">
-        <v>306.4335533806237</v>
+        <v>306.4335533806239</v>
       </c>
       <c r="P13" t="n">
-        <v>262.2068429493063</v>
+        <v>262.2068429493065</v>
       </c>
       <c r="Q13" t="n">
-        <v>181.5384268194574</v>
+        <v>181.5384268194576</v>
       </c>
       <c r="R13" t="n">
-        <v>97.48008457811703</v>
+        <v>97.48008457811713</v>
       </c>
       <c r="S13" t="n">
-        <v>37.78190904493537</v>
+        <v>37.7819090449354</v>
       </c>
       <c r="T13" t="n">
-        <v>9.263170188377478</v>
+        <v>9.263170188377487</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1182532364473722</v>
+        <v>0.1182532364473723</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,7 +31987,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -31999,31 +31999,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S14" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32066,49 +32066,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H15" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071786</v>
+        <v>191.332301678856</v>
       </c>
       <c r="O15" t="n">
-        <v>551.7051287319848</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P15" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R15" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32148,25 +32148,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32175,19 +32175,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32324,19 +32324,19 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>465.7451325200306</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P18" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>139.9817740860215</v>
+        <v>360.9226811202611</v>
       </c>
       <c r="R18" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S18" t="n">
         <v>54.65449286742438</v>
@@ -32549,10 +32549,10 @@
         <v>99.52238</v>
       </c>
       <c r="J21" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L21" t="n">
         <v>638.8832749473072</v>
@@ -32561,19 +32561,19 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>465.7451325200306</v>
+        <v>253.6713445157999</v>
       </c>
       <c r="O21" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P21" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q21" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R21" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S21" t="n">
         <v>54.65449286742438</v>
@@ -32783,22 +32783,22 @@
         <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>734.2678383622665</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071785</v>
+        <v>753.6188077738268</v>
       </c>
       <c r="O24" t="n">
         <v>700.0808204437243</v>
@@ -32807,7 +32807,7 @@
         <v>561.8765786214698</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
         <v>182.6892564418561</v>
@@ -33020,22 +33020,22 @@
         <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>399.9031616963283</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071785</v>
+        <v>366.8427442359106</v>
       </c>
       <c r="O27" t="n">
         <v>700.0808204437243</v>
@@ -33044,10 +33044,10 @@
         <v>561.8765786214698</v>
       </c>
       <c r="Q27" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R27" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S27" t="n">
         <v>54.65449286742438</v>
@@ -33257,13 +33257,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K30" t="n">
-        <v>175.6052721551106</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L30" t="n">
         <v>638.8832749473072</v>
@@ -33278,13 +33278,13 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P30" t="n">
-        <v>133.9744074143302</v>
+        <v>284.1014732918236</v>
       </c>
       <c r="Q30" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S30" t="n">
         <v>54.65449286742438</v>
@@ -33418,7 +33418,7 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J32" t="n">
-        <v>466.7546155663288</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
         <v>699.5441750817575</v>
@@ -33494,19 +33494,19 @@
         <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L33" t="n">
-        <v>490.507583235568</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862121</v>
+        <v>353.6230700590495</v>
       </c>
       <c r="N33" t="n">
         <v>765.2790490071785</v>
@@ -33515,7 +33515,7 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P33" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q33" t="n">
         <v>139.9817740860215</v>
@@ -33737,16 +33737,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473072</v>
+        <v>570.6116741576916</v>
       </c>
       <c r="M36" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>595.327537312171</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
         <v>142.5962444444444</v>
@@ -33755,7 +33755,7 @@
         <v>561.8765786214698</v>
       </c>
       <c r="Q36" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R36" t="n">
         <v>145.679503963964</v>
@@ -33901,7 +33901,7 @@
         <v>867.846407116256</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175679</v>
       </c>
       <c r="N38" t="n">
         <v>981.2715114159425</v>
@@ -33968,16 +33968,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J39" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M39" t="n">
         <v>745.5466476862121</v>
@@ -33986,13 +33986,13 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P39" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q39" t="n">
-        <v>139.9817740860215</v>
+        <v>250.1723312270667</v>
       </c>
       <c r="R39" t="n">
         <v>145.679503963964</v>
@@ -34205,7 +34205,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
         <v>126.8376266666667</v>
@@ -34214,7 +34214,7 @@
         <v>137.841438974359</v>
       </c>
       <c r="L42" t="n">
-        <v>164.2853229338207</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M42" t="n">
         <v>745.5466476862121</v>
@@ -34229,10 +34229,10 @@
         <v>561.8765786214698</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.599612848529</v>
+        <v>362.5355639238086</v>
       </c>
       <c r="R42" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S42" t="n">
         <v>54.65449286742438</v>
@@ -34454,22 +34454,22 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071785</v>
+        <v>368.6279838366855</v>
       </c>
       <c r="O45" t="n">
-        <v>400.5469039565762</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P45" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q45" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R45" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S45" t="n">
         <v>54.65449286742438</v>
@@ -34696,28 +34696,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>6.092590538867967</v>
+        <v>6.092590538867938</v>
       </c>
       <c r="K2" t="n">
-        <v>60.38224240788321</v>
+        <v>60.38224240788315</v>
       </c>
       <c r="L2" t="n">
-        <v>112.1840179973019</v>
+        <v>112.1840179973018</v>
       </c>
       <c r="M2" t="n">
-        <v>156.8156663197545</v>
+        <v>156.8156663197544</v>
       </c>
       <c r="N2" t="n">
         <v>164.0135202504113</v>
       </c>
       <c r="O2" t="n">
-        <v>141.4033554405811</v>
+        <v>141.403355440581</v>
       </c>
       <c r="P2" t="n">
-        <v>85.83499656915973</v>
+        <v>85.83499656915967</v>
       </c>
       <c r="Q2" t="n">
-        <v>15.79916774065964</v>
+        <v>15.79916774065958</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34778,25 +34778,25 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>52.65872908781461</v>
+        <v>52.65872908781455</v>
       </c>
       <c r="L3" t="n">
-        <v>117.596605360629</v>
+        <v>117.5966053606289</v>
       </c>
       <c r="M3" t="n">
-        <v>156.7820838755145</v>
+        <v>156.7820838755144</v>
       </c>
       <c r="N3" t="n">
-        <v>175.485825899632</v>
+        <v>175.4858258996319</v>
       </c>
       <c r="O3" t="n">
         <v>138.0910091848227</v>
       </c>
       <c r="P3" t="n">
-        <v>91.30185944855685</v>
+        <v>91.3018594485568</v>
       </c>
       <c r="Q3" t="n">
-        <v>10.6094444076499</v>
+        <v>10.60944440764987</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34860,16 +34860,16 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>12.15921574646072</v>
+        <v>12.15921574646066</v>
       </c>
       <c r="M4" t="n">
-        <v>16.11138312061146</v>
+        <v>16.11138312061144</v>
       </c>
       <c r="N4" t="n">
-        <v>23.66518529520818</v>
+        <v>23.66518529520815</v>
       </c>
       <c r="O4" t="n">
-        <v>1.340357307400467</v>
+        <v>1.340357307400438</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -35170,31 +35170,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>113.6232845278981</v>
+        <v>113.6232845278982</v>
       </c>
       <c r="K8" t="n">
-        <v>221.5428782406005</v>
+        <v>221.5428782406007</v>
       </c>
       <c r="L8" t="n">
-        <v>312.1180375460301</v>
+        <v>312.1180375460303</v>
       </c>
       <c r="M8" t="n">
-        <v>379.2807862290465</v>
+        <v>379.2807862290468</v>
       </c>
       <c r="N8" t="n">
-        <v>390.078358379958</v>
+        <v>390.0783583799583</v>
       </c>
       <c r="O8" t="n">
-        <v>354.869971642224</v>
+        <v>354.8699716422242</v>
       </c>
       <c r="P8" t="n">
-        <v>268.0238147725502</v>
+        <v>268.0238147725504</v>
       </c>
       <c r="Q8" t="n">
-        <v>152.6153827719016</v>
+        <v>152.6153827719017</v>
       </c>
       <c r="R8" t="n">
-        <v>2.503252264661796</v>
+        <v>2.503252264661882</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,28 +35249,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>48.66532364820659</v>
+        <v>48.66532364820665</v>
       </c>
       <c r="K9" t="n">
-        <v>162.1210568124052</v>
+        <v>162.1210568124054</v>
       </c>
       <c r="L9" t="n">
-        <v>264.7822134766042</v>
+        <v>264.7822134766044</v>
       </c>
       <c r="M9" t="n">
-        <v>328.5407462502219</v>
+        <v>328.5407462502221</v>
       </c>
       <c r="N9" t="n">
-        <v>351.790428983547</v>
+        <v>351.7904289835473</v>
       </c>
       <c r="O9" t="n">
-        <v>299.3752771065945</v>
+        <v>299.3752771065946</v>
       </c>
       <c r="P9" t="n">
-        <v>220.7467035280101</v>
+        <v>220.7467035280102</v>
       </c>
       <c r="Q9" t="n">
-        <v>97.13989463706801</v>
+        <v>97.1398946370681</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35331,22 +35331,22 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>51.92293345530996</v>
+        <v>51.92293345531004</v>
       </c>
       <c r="L10" t="n">
-        <v>96.65135484936235</v>
+        <v>96.65135484936243</v>
       </c>
       <c r="M10" t="n">
-        <v>105.1964971325555</v>
+        <v>105.1964971325556</v>
       </c>
       <c r="N10" t="n">
-        <v>110.6320544109685</v>
+        <v>110.6320544109686</v>
       </c>
       <c r="O10" t="n">
-        <v>81.66833693146279</v>
+        <v>81.66833693146287</v>
       </c>
       <c r="P10" t="n">
-        <v>50.62685458858681</v>
+        <v>50.62685458858689</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35407,31 +35407,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>229.1600138937051</v>
+        <v>229.1600138937055</v>
       </c>
       <c r="K11" t="n">
-        <v>394.7024857525317</v>
+        <v>394.7024857525323</v>
       </c>
       <c r="L11" t="n">
-        <v>526.9378424844779</v>
+        <v>526.9378424844786</v>
       </c>
       <c r="M11" t="n">
-        <v>618.3092105681827</v>
+        <v>618.3092105681835</v>
       </c>
       <c r="N11" t="n">
-        <v>632.9745125214254</v>
+        <v>632.974512521426</v>
       </c>
       <c r="O11" t="n">
-        <v>584.2299222739931</v>
+        <v>584.2299222739939</v>
       </c>
       <c r="P11" t="n">
-        <v>463.7772262067658</v>
+        <v>463.7772262067664</v>
       </c>
       <c r="Q11" t="n">
-        <v>299.6180424081471</v>
+        <v>299.6180424081475</v>
       </c>
       <c r="R11" t="n">
-        <v>88.01360235553057</v>
+        <v>88.01360235553085</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,31 +35486,31 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>117.4782081526469</v>
+        <v>117.4782081526471</v>
       </c>
       <c r="K12" t="n">
-        <v>279.7332367854788</v>
+        <v>279.7332367854792</v>
       </c>
       <c r="L12" t="n">
-        <v>222.8921240594712</v>
+        <v>208.0157133629141</v>
       </c>
       <c r="M12" t="n">
-        <v>513.0874403601292</v>
+        <v>513.0874403601299</v>
       </c>
       <c r="N12" t="n">
-        <v>541.2215249507168</v>
+        <v>541.2215249507174</v>
       </c>
       <c r="O12" t="n">
-        <v>472.6677215480025</v>
+        <v>472.6677215480031</v>
       </c>
       <c r="P12" t="n">
-        <v>359.829167924014</v>
+        <v>359.8291679240144</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>14.87641069655351</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,28 +35565,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>59.91672319186267</v>
+        <v>59.91672319186281</v>
       </c>
       <c r="K13" t="n">
-        <v>229.6099018070196</v>
+        <v>229.6099018070199</v>
       </c>
       <c r="L13" t="n">
-        <v>349.90893007037</v>
+        <v>349.9089300703704</v>
       </c>
       <c r="M13" t="n">
-        <v>379.4239696388467</v>
+        <v>379.423969638847</v>
       </c>
       <c r="N13" t="n">
-        <v>375.8916272323312</v>
+        <v>375.8916272323315</v>
       </c>
       <c r="O13" t="n">
-        <v>331.0186812946633</v>
+        <v>331.0186812946636</v>
       </c>
       <c r="P13" t="n">
-        <v>259.4854022141998</v>
+        <v>259.4854022142</v>
       </c>
       <c r="Q13" t="n">
-        <v>95.37638356776303</v>
+        <v>95.3763835677632</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35641,34 +35641,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L14" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35720,34 +35720,34 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238454</v>
+        <v>59.99058959552271</v>
       </c>
       <c r="O15" t="n">
-        <v>409.1088842875403</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,22 +35802,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K16" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35972,19 +35972,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>334.4034204366973</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>220.9409070342396</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36045,7 +36045,7 @@
         <v>264.3325884096349</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191317</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M19" t="n">
         <v>426.2724270010451</v>
@@ -36197,10 +36197,10 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
         <v>500.328895167433</v>
@@ -36209,19 +36209,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>334.4034204366973</v>
+        <v>122.3296324324666</v>
       </c>
       <c r="O21" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36294,10 +36294,10 @@
         <v>373.2618997060454</v>
       </c>
       <c r="P22" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066253</v>
       </c>
       <c r="Q22" t="n">
-        <v>120.4022572998988</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36431,22 +36431,22 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
-        <v>592.1338044402481</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238452</v>
+        <v>622.2770956904935</v>
       </c>
       <c r="O24" t="n">
         <v>557.4845759992799</v>
@@ -36455,7 +36455,7 @@
         <v>427.9021712071395</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>37.00975247789211</v>
@@ -36534,7 +36534,7 @@
         <v>295.631773306625</v>
       </c>
       <c r="Q25" t="n">
-        <v>120.4022572998979</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36668,22 +36668,22 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>261.3487819164541</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238452</v>
+        <v>235.5010321525773</v>
       </c>
       <c r="O27" t="n">
         <v>557.4845759992799</v>
@@ -36692,10 +36692,10 @@
         <v>427.9021712071395</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36905,13 +36905,13 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>37.76383318075158</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
         <v>500.328895167433</v>
@@ -36926,13 +36926,13 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>150.1270658774933</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37066,7 +37066,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J32" t="n">
-        <v>285.7087110396425</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
         <v>479.454324036777</v>
@@ -37142,19 +37142,19 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>351.9532034556938</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
-        <v>603.4126137641938</v>
+        <v>211.4890361370311</v>
       </c>
       <c r="N33" t="n">
         <v>633.9373369238452</v>
@@ -37163,7 +37163,7 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
@@ -37385,16 +37385,16 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>500.328895167433</v>
+        <v>432.0572943778175</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>463.9858252288377</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
         <v>0</v>
@@ -37403,7 +37403,7 @@
         <v>427.9021712071395</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37549,7 +37549,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902952</v>
       </c>
       <c r="N38" t="n">
         <v>751.8584478193516</v>
@@ -37616,16 +37616,16 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
@@ -37634,13 +37634,13 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>110.1905571410452</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37853,7 +37853,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -37862,7 +37862,7 @@
         <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>25.73094315394657</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
@@ -37877,10 +37877,10 @@
         <v>427.9021712071395</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625075</v>
+        <v>222.5537898377871</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38102,22 +38102,22 @@
         <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238452</v>
+        <v>237.2862717533522</v>
       </c>
       <c r="O45" t="n">
-        <v>257.9506595121318</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
